--- a/doc/meeting/0919-DistributedGBT-II/datapartition.xlsx
+++ b/doc/meeting/0919-DistributedGBT-II/datapartition.xlsx
@@ -4,11 +4,12 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20490" windowHeight="12915"/>
+    <workbookView windowWidth="28695" windowHeight="15120" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
@@ -102,49 +103,135 @@
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="25">
+  <fonts count="24">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="4"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="0"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
@@ -152,122 +239,29 @@
       <b/>
       <sz val="18"/>
       <color theme="3"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <u/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
@@ -341,13 +335,85 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -365,31 +431,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -407,13 +455,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -425,79 +491,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -643,11 +637,41 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -661,11 +685,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -696,47 +726,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -745,324 +739,324 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="29" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="16" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="13" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="21" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="23" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="23" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="31" borderId="20" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
   <cellXfs count="39">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="50">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal" xfId="1"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="2" builtinId="52"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="3" builtinId="42"/>
-    <cellStyle name="强调文字颜色 4" xfId="4" builtinId="41"/>
-    <cellStyle name="输入" xfId="5" builtinId="20"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="7" builtinId="38"/>
-    <cellStyle name="货币" xfId="8" builtinId="4"/>
-    <cellStyle name="强调文字颜色 3" xfId="9" builtinId="37"/>
-    <cellStyle name="百分比" xfId="10" builtinId="5"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="11" builtinId="36"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="12" builtinId="48"/>
-    <cellStyle name="强调文字颜色 2" xfId="13" builtinId="33"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="14" builtinId="32"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="15" builtinId="44"/>
-    <cellStyle name="计算" xfId="16" builtinId="22"/>
-    <cellStyle name="强调文字颜色 1" xfId="17" builtinId="29"/>
-    <cellStyle name="适中" xfId="18" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="19" builtinId="46"/>
-    <cellStyle name="好" xfId="20" builtinId="26"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="21" builtinId="30"/>
-    <cellStyle name="汇总" xfId="22" builtinId="25"/>
-    <cellStyle name="差" xfId="23" builtinId="27"/>
-    <cellStyle name="检查单元格" xfId="24" builtinId="23"/>
-    <cellStyle name="输出" xfId="25" builtinId="21"/>
-    <cellStyle name="标题 1" xfId="26" builtinId="16"/>
-    <cellStyle name="解释性文本" xfId="27" builtinId="53"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="28" builtinId="34"/>
-    <cellStyle name="标题 4" xfId="29" builtinId="19"/>
-    <cellStyle name="货币[0]" xfId="30" builtinId="7"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="31" builtinId="43"/>
-    <cellStyle name="千位分隔" xfId="32" builtinId="3"/>
-    <cellStyle name="已访问的超链接" xfId="33" builtinId="9"/>
-    <cellStyle name="标题" xfId="34" builtinId="15"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="35" builtinId="35"/>
-    <cellStyle name="警告文本" xfId="36" builtinId="11"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="37" builtinId="40"/>
-    <cellStyle name="注释" xfId="38" builtinId="10"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="39" builtinId="50"/>
-    <cellStyle name="强调文字颜色 5" xfId="40" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="41" builtinId="51"/>
-    <cellStyle name="超链接" xfId="42" builtinId="8"/>
-    <cellStyle name="千位分隔[0]" xfId="43" builtinId="6"/>
-    <cellStyle name="标题 2" xfId="44" builtinId="17"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="45" builtinId="47"/>
-    <cellStyle name="标题 3" xfId="46" builtinId="18"/>
-    <cellStyle name="强调文字颜色 6" xfId="47" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="48" builtinId="31"/>
-    <cellStyle name="链接单元格" xfId="49" builtinId="24"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="60% - Accent6" xfId="1" builtinId="52"/>
+    <cellStyle name="40% - Accent6" xfId="2" builtinId="51"/>
+    <cellStyle name="60% - Accent5" xfId="3" builtinId="48"/>
+    <cellStyle name="Accent6" xfId="4" builtinId="49"/>
+    <cellStyle name="常规" xfId="5"/>
+    <cellStyle name="40% - Accent5" xfId="6" builtinId="47"/>
+    <cellStyle name="20% - Accent5" xfId="7" builtinId="46"/>
+    <cellStyle name="60% - Accent4" xfId="8" builtinId="44"/>
+    <cellStyle name="Accent5" xfId="9" builtinId="45"/>
+    <cellStyle name="40% - Accent4" xfId="10" builtinId="43"/>
+    <cellStyle name="Accent4" xfId="11" builtinId="41"/>
+    <cellStyle name="Linked Cell" xfId="12" builtinId="24"/>
+    <cellStyle name="40% - Accent3" xfId="13" builtinId="39"/>
+    <cellStyle name="60% - Accent2" xfId="14" builtinId="36"/>
+    <cellStyle name="Accent3" xfId="15" builtinId="37"/>
+    <cellStyle name="40% - Accent2" xfId="16" builtinId="35"/>
+    <cellStyle name="20% - Accent2" xfId="17" builtinId="34"/>
+    <cellStyle name="Accent2" xfId="18" builtinId="33"/>
+    <cellStyle name="40% - Accent1" xfId="19" builtinId="31"/>
+    <cellStyle name="Accent1" xfId="20" builtinId="29"/>
+    <cellStyle name="Comma[0]" xfId="21" builtinId="6"/>
+    <cellStyle name="Neutral" xfId="22" builtinId="28"/>
+    <cellStyle name="60% - Accent1" xfId="23" builtinId="32"/>
+    <cellStyle name="Bad" xfId="24" builtinId="27"/>
+    <cellStyle name="20% - Accent4" xfId="25" builtinId="42"/>
+    <cellStyle name="Total" xfId="26" builtinId="25"/>
+    <cellStyle name="Output" xfId="27" builtinId="21"/>
+    <cellStyle name="Currency" xfId="28" builtinId="4"/>
+    <cellStyle name="20% - Accent3" xfId="29" builtinId="38"/>
+    <cellStyle name="Note" xfId="30" builtinId="10"/>
+    <cellStyle name="Input" xfId="31" builtinId="20"/>
+    <cellStyle name="Heading 4" xfId="32" builtinId="19"/>
+    <cellStyle name="Calculation" xfId="33" builtinId="22"/>
+    <cellStyle name="Good" xfId="34" builtinId="26"/>
+    <cellStyle name="Heading 3" xfId="35" builtinId="18"/>
+    <cellStyle name="CExplanatory Text" xfId="36" builtinId="53"/>
+    <cellStyle name="60% - Accent3" xfId="37" builtinId="40"/>
+    <cellStyle name="Currency[0]" xfId="38" builtinId="7"/>
+    <cellStyle name="Heading 1" xfId="39" builtinId="16"/>
+    <cellStyle name="20% - Accent6" xfId="40" builtinId="50"/>
+    <cellStyle name="Title" xfId="41" builtinId="15"/>
+    <cellStyle name="Warning Text" xfId="42" builtinId="11"/>
+    <cellStyle name="20% - Accent1" xfId="43" builtinId="30"/>
+    <cellStyle name="Hyperlink" xfId="44" builtinId="8"/>
+    <cellStyle name="Followed Hyperlink" xfId="45" builtinId="9"/>
+    <cellStyle name="Heading 2" xfId="46" builtinId="17"/>
+    <cellStyle name="Comma" xfId="47" builtinId="3"/>
+    <cellStyle name="Check Cell" xfId="48" builtinId="23"/>
+    <cellStyle name="Percent" xfId="49" builtinId="5"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2"/>
 </styleSheet>
@@ -1090,8 +1084,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1114425" y="15916275"/>
-          <a:ext cx="0" cy="371475"/>
+          <a:off x="1114425" y="16802100"/>
+          <a:ext cx="0" cy="390525"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -1137,8 +1131,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1438275" y="15916275"/>
-          <a:ext cx="857250" cy="304800"/>
+          <a:off x="1438275" y="16802100"/>
+          <a:ext cx="857250" cy="314325"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -1184,8 +1178,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2543175" y="15925800"/>
-          <a:ext cx="304800" cy="295275"/>
+          <a:off x="2543175" y="16811625"/>
+          <a:ext cx="304800" cy="304800"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -1231,8 +1225,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1990725" y="15925800"/>
-          <a:ext cx="590550" cy="285750"/>
+          <a:off x="1990725" y="16811625"/>
+          <a:ext cx="590550" cy="295275"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -1278,8 +1272,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1">
-          <a:off x="1419225" y="15916275"/>
-          <a:ext cx="257175" cy="314325"/>
+          <a:off x="1419225" y="16802100"/>
+          <a:ext cx="257175" cy="323850"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -1325,8 +1319,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1">
-          <a:off x="1724025" y="15925800"/>
-          <a:ext cx="571500" cy="314325"/>
+          <a:off x="1724025" y="16811625"/>
+          <a:ext cx="571500" cy="333375"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -1372,8 +1366,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1">
-          <a:off x="2028825" y="15916275"/>
-          <a:ext cx="809625" cy="314325"/>
+          <a:off x="2028825" y="16802100"/>
+          <a:ext cx="809625" cy="323850"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -1406,7 +1400,7 @@
       <xdr:row>106</xdr:row>
       <xdr:rowOff>104775</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="601980" cy="273050"/>
+    <xdr:ext cx="601980" cy="292100"/>
     <xdr:sp>
       <xdr:nvSpPr>
         <xdr:cNvPr id="9" name="文本框 8"/>
@@ -1414,8 +1408,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="838200" y="17316450"/>
-          <a:ext cx="601980" cy="273050"/>
+          <a:off x="838200" y="18278475"/>
+          <a:ext cx="601980" cy="292100"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1471,8 +1465,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="762000" y="15754350"/>
-          <a:ext cx="95250" cy="657225"/>
+          <a:off x="762000" y="16630650"/>
+          <a:ext cx="95250" cy="695325"/>
         </a:xfrm>
         <a:prstGeom prst="leftBrace">
           <a:avLst/>
@@ -1522,8 +1516,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="778510" y="16878300"/>
-          <a:ext cx="75565" cy="676275"/>
+          <a:off x="778510" y="17811750"/>
+          <a:ext cx="75565" cy="723900"/>
         </a:xfrm>
         <a:prstGeom prst="leftBrace">
           <a:avLst/>
@@ -1817,137 +1811,137 @@
   <sheetPr/>
   <dimension ref="B2:Q108"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A33" workbookViewId="0">
+    <sheetView topLeftCell="A23" workbookViewId="0">
       <selection activeCell="Y56" sqref="Y56"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="2" max="2" width="3.625" customWidth="1"/>
     <col min="3" max="26" width="3.875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="3:15">
-      <c r="C2" s="12" t="s">
+      <c r="C2" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="D2" s="13"/>
-      <c r="E2" s="13"/>
-      <c r="F2" s="13"/>
-      <c r="G2" s="13"/>
-      <c r="H2" s="13"/>
-      <c r="I2" s="12" t="s">
+      <c r="D2" s="15"/>
+      <c r="E2" s="15"/>
+      <c r="F2" s="15"/>
+      <c r="G2" s="15"/>
+      <c r="H2" s="15"/>
+      <c r="I2" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="J2" s="13"/>
-      <c r="K2" s="13"/>
-      <c r="L2" s="13"/>
-      <c r="M2" s="13"/>
-      <c r="N2" s="13"/>
-      <c r="O2" s="12" t="s">
+      <c r="J2" s="15"/>
+      <c r="K2" s="15"/>
+      <c r="L2" s="15"/>
+      <c r="M2" s="15"/>
+      <c r="N2" s="15"/>
+      <c r="O2" s="14" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="3" spans="3:15">
-      <c r="C3" s="14"/>
-      <c r="D3" s="14"/>
-      <c r="E3" s="14"/>
-      <c r="F3" s="14"/>
-      <c r="G3" s="14"/>
-      <c r="H3" s="14"/>
-      <c r="I3" s="14"/>
-      <c r="J3" s="9"/>
-      <c r="K3" s="14"/>
-      <c r="L3" s="14"/>
-      <c r="M3" s="14"/>
-      <c r="O3" s="14"/>
+      <c r="C3" s="16"/>
+      <c r="D3" s="16"/>
+      <c r="E3" s="16"/>
+      <c r="F3" s="16"/>
+      <c r="G3" s="16"/>
+      <c r="H3" s="16"/>
+      <c r="I3" s="16"/>
+      <c r="J3" s="26"/>
+      <c r="K3" s="16"/>
+      <c r="L3" s="16"/>
+      <c r="M3" s="16"/>
+      <c r="O3" s="16"/>
     </row>
     <row r="4" spans="3:15">
-      <c r="C4" s="15"/>
-      <c r="D4" s="15"/>
-      <c r="E4" s="15"/>
-      <c r="F4" s="15"/>
-      <c r="G4" s="15"/>
-      <c r="H4" s="15"/>
-      <c r="I4" s="15"/>
-      <c r="J4" s="22"/>
-      <c r="K4" s="15"/>
-      <c r="L4" s="15"/>
-      <c r="M4" s="15"/>
-      <c r="O4" s="23"/>
+      <c r="C4" s="17"/>
+      <c r="D4" s="17"/>
+      <c r="E4" s="17"/>
+      <c r="F4" s="17"/>
+      <c r="G4" s="17"/>
+      <c r="H4" s="17"/>
+      <c r="I4" s="17"/>
+      <c r="J4" s="27"/>
+      <c r="K4" s="17"/>
+      <c r="L4" s="17"/>
+      <c r="M4" s="17"/>
+      <c r="O4" s="28"/>
     </row>
     <row r="5" spans="3:15">
-      <c r="C5" s="14"/>
-      <c r="D5" s="14"/>
-      <c r="E5" s="14"/>
-      <c r="F5" s="14"/>
-      <c r="G5" s="14"/>
-      <c r="H5" s="14"/>
-      <c r="I5" s="14"/>
-      <c r="J5" s="9"/>
-      <c r="K5" s="14"/>
-      <c r="L5" s="14"/>
-      <c r="M5" s="14"/>
-      <c r="O5" s="23"/>
+      <c r="C5" s="16"/>
+      <c r="D5" s="16"/>
+      <c r="E5" s="16"/>
+      <c r="F5" s="16"/>
+      <c r="G5" s="16"/>
+      <c r="H5" s="16"/>
+      <c r="I5" s="16"/>
+      <c r="J5" s="26"/>
+      <c r="K5" s="16"/>
+      <c r="L5" s="16"/>
+      <c r="M5" s="16"/>
+      <c r="O5" s="28"/>
     </row>
     <row r="6" spans="3:15">
-      <c r="C6" s="14"/>
-      <c r="D6" s="14"/>
-      <c r="E6" s="14"/>
-      <c r="F6" s="14"/>
-      <c r="G6" s="14"/>
-      <c r="H6" s="14"/>
-      <c r="I6" s="14"/>
-      <c r="J6" s="9"/>
-      <c r="K6" s="14"/>
-      <c r="L6" s="14"/>
-      <c r="M6" s="14"/>
-      <c r="O6" s="23"/>
+      <c r="C6" s="16"/>
+      <c r="D6" s="16"/>
+      <c r="E6" s="16"/>
+      <c r="F6" s="16"/>
+      <c r="G6" s="16"/>
+      <c r="H6" s="16"/>
+      <c r="I6" s="16"/>
+      <c r="J6" s="26"/>
+      <c r="K6" s="16"/>
+      <c r="L6" s="16"/>
+      <c r="M6" s="16"/>
+      <c r="O6" s="28"/>
     </row>
     <row r="7" spans="3:15">
-      <c r="C7" s="14"/>
-      <c r="D7" s="14"/>
-      <c r="E7" s="14"/>
-      <c r="F7" s="14"/>
-      <c r="G7" s="14"/>
-      <c r="H7" s="14"/>
-      <c r="I7" s="14"/>
-      <c r="J7" s="9"/>
-      <c r="K7" s="14"/>
-      <c r="L7" s="14"/>
-      <c r="M7" s="14"/>
-      <c r="O7" s="23"/>
+      <c r="C7" s="16"/>
+      <c r="D7" s="16"/>
+      <c r="E7" s="16"/>
+      <c r="F7" s="16"/>
+      <c r="G7" s="16"/>
+      <c r="H7" s="16"/>
+      <c r="I7" s="16"/>
+      <c r="J7" s="26"/>
+      <c r="K7" s="16"/>
+      <c r="L7" s="16"/>
+      <c r="M7" s="16"/>
+      <c r="O7" s="28"/>
     </row>
     <row r="8" spans="3:15">
-      <c r="C8" s="14"/>
-      <c r="D8" s="14"/>
-      <c r="E8" s="14"/>
-      <c r="F8" s="14"/>
-      <c r="G8" s="14"/>
-      <c r="H8" s="14"/>
-      <c r="I8" s="14"/>
-      <c r="J8" s="9"/>
-      <c r="K8" s="14"/>
-      <c r="L8" s="14"/>
-      <c r="M8" s="14"/>
-      <c r="O8" s="23"/>
+      <c r="C8" s="16"/>
+      <c r="D8" s="16"/>
+      <c r="E8" s="16"/>
+      <c r="F8" s="16"/>
+      <c r="G8" s="16"/>
+      <c r="H8" s="16"/>
+      <c r="I8" s="16"/>
+      <c r="J8" s="26"/>
+      <c r="K8" s="16"/>
+      <c r="L8" s="16"/>
+      <c r="M8" s="16"/>
+      <c r="O8" s="28"/>
     </row>
     <row r="9" spans="3:15">
-      <c r="C9" s="14"/>
-      <c r="D9" s="14"/>
-      <c r="E9" s="14"/>
-      <c r="F9" s="14"/>
-      <c r="G9" s="14"/>
-      <c r="H9" s="14"/>
-      <c r="I9" s="14"/>
-      <c r="J9" s="9"/>
-      <c r="K9" s="14"/>
-      <c r="L9" s="14"/>
-      <c r="M9" s="14"/>
-      <c r="O9" s="23"/>
-    </row>
-    <row r="10" ht="13.5" spans="2:15">
-      <c r="B10" t="s">
+      <c r="C9" s="16"/>
+      <c r="D9" s="16"/>
+      <c r="E9" s="16"/>
+      <c r="F9" s="16"/>
+      <c r="G9" s="16"/>
+      <c r="H9" s="16"/>
+      <c r="I9" s="16"/>
+      <c r="J9" s="26"/>
+      <c r="K9" s="16"/>
+      <c r="L9" s="16"/>
+      <c r="M9" s="16"/>
+      <c r="O9" s="28"/>
+    </row>
+    <row r="10" spans="2:15">
+      <c r="B10" s="18" t="s">
         <v>3</v>
       </c>
       <c r="C10" s="3"/>
@@ -1957,176 +1951,176 @@
       <c r="G10" s="3"/>
       <c r="H10" s="3"/>
       <c r="I10" s="3"/>
-      <c r="J10" s="10" t="s">
+      <c r="J10" s="23" t="s">
         <v>4</v>
       </c>
       <c r="K10" s="3"/>
       <c r="L10" s="3"/>
       <c r="M10" s="3"/>
-      <c r="O10" s="11" t="s">
+      <c r="O10" s="29" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="11" spans="3:15">
-      <c r="C11" s="14"/>
-      <c r="D11" s="14"/>
-      <c r="E11" s="14"/>
-      <c r="F11" s="14"/>
-      <c r="G11" s="14"/>
-      <c r="H11" s="14"/>
-      <c r="I11" s="14"/>
-      <c r="J11" s="9"/>
-      <c r="K11" s="14"/>
-      <c r="L11" s="14"/>
-      <c r="M11" s="14"/>
-      <c r="O11" s="23"/>
+      <c r="C11" s="16"/>
+      <c r="D11" s="16"/>
+      <c r="E11" s="16"/>
+      <c r="F11" s="16"/>
+      <c r="G11" s="16"/>
+      <c r="H11" s="16"/>
+      <c r="I11" s="16"/>
+      <c r="J11" s="26"/>
+      <c r="K11" s="16"/>
+      <c r="L11" s="16"/>
+      <c r="M11" s="16"/>
+      <c r="O11" s="28"/>
     </row>
     <row r="12" spans="3:15">
-      <c r="C12" s="14"/>
-      <c r="D12" s="14"/>
-      <c r="E12" s="14"/>
-      <c r="F12" s="14"/>
-      <c r="G12" s="14"/>
-      <c r="H12" s="14"/>
-      <c r="I12" s="14"/>
-      <c r="J12" s="9"/>
-      <c r="K12" s="14"/>
-      <c r="L12" s="14"/>
-      <c r="M12" s="14"/>
-      <c r="O12" s="23"/>
+      <c r="C12" s="16"/>
+      <c r="D12" s="16"/>
+      <c r="E12" s="16"/>
+      <c r="F12" s="16"/>
+      <c r="G12" s="16"/>
+      <c r="H12" s="16"/>
+      <c r="I12" s="16"/>
+      <c r="J12" s="26"/>
+      <c r="K12" s="16"/>
+      <c r="L12" s="16"/>
+      <c r="M12" s="16"/>
+      <c r="O12" s="28"/>
     </row>
     <row r="13" spans="3:15">
-      <c r="C13" s="14"/>
-      <c r="D13" s="14"/>
-      <c r="E13" s="14"/>
-      <c r="F13" s="14"/>
-      <c r="G13" s="14"/>
-      <c r="H13" s="14"/>
-      <c r="I13" s="14"/>
-      <c r="J13" s="9"/>
-      <c r="K13" s="14"/>
-      <c r="L13" s="14"/>
-      <c r="M13" s="14"/>
-      <c r="O13" s="23"/>
+      <c r="C13" s="16"/>
+      <c r="D13" s="16"/>
+      <c r="E13" s="16"/>
+      <c r="F13" s="16"/>
+      <c r="G13" s="16"/>
+      <c r="H13" s="16"/>
+      <c r="I13" s="16"/>
+      <c r="J13" s="26"/>
+      <c r="K13" s="16"/>
+      <c r="L13" s="16"/>
+      <c r="M13" s="16"/>
+      <c r="O13" s="28"/>
     </row>
     <row r="14" spans="3:15">
-      <c r="C14" s="14"/>
-      <c r="D14" s="14"/>
-      <c r="E14" s="14"/>
-      <c r="F14" s="14"/>
-      <c r="G14" s="14"/>
-      <c r="H14" s="14"/>
-      <c r="I14" s="14"/>
-      <c r="J14" s="9"/>
-      <c r="K14" s="14"/>
-      <c r="L14" s="14"/>
-      <c r="M14" s="14"/>
-      <c r="O14" s="23"/>
+      <c r="C14" s="16"/>
+      <c r="D14" s="16"/>
+      <c r="E14" s="16"/>
+      <c r="F14" s="16"/>
+      <c r="G14" s="16"/>
+      <c r="H14" s="16"/>
+      <c r="I14" s="16"/>
+      <c r="J14" s="26"/>
+      <c r="K14" s="16"/>
+      <c r="L14" s="16"/>
+      <c r="M14" s="16"/>
+      <c r="O14" s="28"/>
     </row>
     <row r="15" spans="3:15">
-      <c r="C15" s="14"/>
-      <c r="D15" s="14"/>
-      <c r="E15" s="14"/>
-      <c r="F15" s="14"/>
-      <c r="G15" s="14"/>
-      <c r="H15" s="14"/>
-      <c r="I15" s="14"/>
-      <c r="J15" s="9"/>
-      <c r="K15" s="14"/>
-      <c r="L15" s="14"/>
-      <c r="M15" s="14"/>
-      <c r="O15" s="23"/>
+      <c r="C15" s="16"/>
+      <c r="D15" s="16"/>
+      <c r="E15" s="16"/>
+      <c r="F15" s="16"/>
+      <c r="G15" s="16"/>
+      <c r="H15" s="16"/>
+      <c r="I15" s="16"/>
+      <c r="J15" s="26"/>
+      <c r="K15" s="16"/>
+      <c r="L15" s="16"/>
+      <c r="M15" s="16"/>
+      <c r="O15" s="28"/>
     </row>
     <row r="16" spans="3:15">
-      <c r="C16" s="14"/>
-      <c r="D16" s="14"/>
-      <c r="E16" s="14"/>
-      <c r="F16" s="14"/>
-      <c r="G16" s="14"/>
-      <c r="H16" s="14"/>
-      <c r="I16" s="14"/>
-      <c r="J16" s="9"/>
-      <c r="K16" s="14"/>
-      <c r="L16" s="14"/>
-      <c r="M16" s="14"/>
-      <c r="O16" s="23"/>
+      <c r="C16" s="16"/>
+      <c r="D16" s="16"/>
+      <c r="E16" s="16"/>
+      <c r="F16" s="16"/>
+      <c r="G16" s="16"/>
+      <c r="H16" s="16"/>
+      <c r="I16" s="16"/>
+      <c r="J16" s="26"/>
+      <c r="K16" s="16"/>
+      <c r="L16" s="16"/>
+      <c r="M16" s="16"/>
+      <c r="O16" s="28"/>
     </row>
     <row r="17" spans="3:15">
-      <c r="C17" s="14"/>
-      <c r="D17" s="14"/>
-      <c r="E17" s="14"/>
-      <c r="F17" s="14"/>
-      <c r="G17" s="14"/>
-      <c r="H17" s="14"/>
-      <c r="I17" s="14"/>
-      <c r="J17" s="9"/>
-      <c r="K17" s="14"/>
-      <c r="L17" s="14"/>
-      <c r="M17" s="14"/>
-      <c r="O17" s="23"/>
+      <c r="C17" s="16"/>
+      <c r="D17" s="16"/>
+      <c r="E17" s="16"/>
+      <c r="F17" s="16"/>
+      <c r="G17" s="16"/>
+      <c r="H17" s="16"/>
+      <c r="I17" s="16"/>
+      <c r="J17" s="26"/>
+      <c r="K17" s="16"/>
+      <c r="L17" s="16"/>
+      <c r="M17" s="16"/>
+      <c r="O17" s="28"/>
     </row>
     <row r="18" spans="3:15">
-      <c r="C18" s="14"/>
-      <c r="D18" s="14"/>
-      <c r="E18" s="14"/>
-      <c r="F18" s="14"/>
-      <c r="G18" s="14"/>
-      <c r="H18" s="14"/>
-      <c r="I18" s="14"/>
-      <c r="J18" s="9"/>
-      <c r="K18" s="14"/>
-      <c r="L18" s="14"/>
-      <c r="M18" s="14"/>
-      <c r="O18" s="24"/>
+      <c r="C18" s="16"/>
+      <c r="D18" s="16"/>
+      <c r="E18" s="16"/>
+      <c r="F18" s="16"/>
+      <c r="G18" s="16"/>
+      <c r="H18" s="16"/>
+      <c r="I18" s="16"/>
+      <c r="J18" s="26"/>
+      <c r="K18" s="16"/>
+      <c r="L18" s="16"/>
+      <c r="M18" s="16"/>
+      <c r="O18" s="17"/>
     </row>
     <row r="20" spans="2:13">
-      <c r="B20" s="2"/>
-      <c r="C20" s="2"/>
-      <c r="D20" s="2"/>
-      <c r="E20" s="2"/>
-      <c r="F20" s="2"/>
-      <c r="G20" s="2"/>
-      <c r="H20" s="2"/>
-      <c r="I20" s="2"/>
-      <c r="J20" s="2"/>
-      <c r="K20" s="2"/>
-      <c r="L20" s="2"/>
-      <c r="M20" s="2"/>
+      <c r="B20" s="19"/>
+      <c r="C20" s="19"/>
+      <c r="D20" s="19"/>
+      <c r="E20" s="19"/>
+      <c r="F20" s="19"/>
+      <c r="G20" s="19"/>
+      <c r="H20" s="19"/>
+      <c r="I20" s="19"/>
+      <c r="J20" s="19"/>
+      <c r="K20" s="19"/>
+      <c r="L20" s="19"/>
+      <c r="M20" s="19"/>
     </row>
     <row r="21" spans="2:13">
-      <c r="B21" s="2"/>
-      <c r="C21" s="2" t="s">
+      <c r="B21" s="19"/>
+      <c r="C21" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="D21" s="2"/>
-      <c r="E21" s="2"/>
-      <c r="F21" s="2"/>
-      <c r="G21" s="2"/>
-      <c r="H21" s="2"/>
-      <c r="I21" s="2" t="s">
+      <c r="D21" s="19"/>
+      <c r="E21" s="19"/>
+      <c r="F21" s="19"/>
+      <c r="G21" s="19"/>
+      <c r="H21" s="19"/>
+      <c r="I21" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="J21" s="2"/>
-      <c r="K21" s="2"/>
-      <c r="L21" s="2"/>
-      <c r="M21" s="2"/>
+      <c r="J21" s="19"/>
+      <c r="K21" s="19"/>
+      <c r="L21" s="19"/>
+      <c r="M21" s="19"/>
     </row>
     <row r="22" spans="2:13">
-      <c r="B22" s="2"/>
-      <c r="C22" s="14"/>
-      <c r="D22" s="14"/>
-      <c r="E22" s="14"/>
-      <c r="F22" s="14"/>
-      <c r="G22" s="14"/>
-      <c r="H22" s="14"/>
-      <c r="I22" s="14"/>
-      <c r="J22" s="14"/>
-      <c r="K22" s="14"/>
-      <c r="L22" s="14"/>
-      <c r="M22" s="14"/>
+      <c r="B22" s="19"/>
+      <c r="C22" s="16"/>
+      <c r="D22" s="16"/>
+      <c r="E22" s="16"/>
+      <c r="F22" s="16"/>
+      <c r="G22" s="16"/>
+      <c r="H22" s="16"/>
+      <c r="I22" s="16"/>
+      <c r="J22" s="16"/>
+      <c r="K22" s="16"/>
+      <c r="L22" s="16"/>
+      <c r="M22" s="16"/>
     </row>
     <row r="23" spans="2:13">
-      <c r="B23" s="2"/>
+      <c r="B23" s="19"/>
       <c r="C23" s="3"/>
       <c r="D23" s="3"/>
       <c r="E23" s="3"/>
@@ -2134,13 +2128,13 @@
       <c r="G23" s="3"/>
       <c r="H23" s="3"/>
       <c r="I23" s="3"/>
-      <c r="J23" s="10"/>
+      <c r="J23" s="23"/>
       <c r="K23" s="3"/>
       <c r="L23" s="3"/>
       <c r="M23" s="3"/>
     </row>
     <row r="24" spans="2:13">
-      <c r="B24" s="2"/>
+      <c r="B24" s="19"/>
       <c r="C24" s="3"/>
       <c r="D24" s="3"/>
       <c r="E24" s="3"/>
@@ -2148,27 +2142,27 @@
       <c r="G24" s="3"/>
       <c r="H24" s="3"/>
       <c r="I24" s="3"/>
-      <c r="J24" s="10"/>
+      <c r="J24" s="23"/>
       <c r="K24" s="3"/>
       <c r="L24" s="3"/>
       <c r="M24" s="3"/>
     </row>
     <row r="25" spans="2:13">
-      <c r="B25" s="2"/>
-      <c r="C25" s="14"/>
-      <c r="D25" s="14"/>
-      <c r="E25" s="14"/>
-      <c r="F25" s="14"/>
-      <c r="G25" s="14"/>
-      <c r="H25" s="14"/>
-      <c r="I25" s="14"/>
-      <c r="J25" s="14"/>
-      <c r="K25" s="14"/>
-      <c r="L25" s="14"/>
-      <c r="M25" s="14"/>
+      <c r="B25" s="19"/>
+      <c r="C25" s="16"/>
+      <c r="D25" s="16"/>
+      <c r="E25" s="16"/>
+      <c r="F25" s="16"/>
+      <c r="G25" s="16"/>
+      <c r="H25" s="16"/>
+      <c r="I25" s="16"/>
+      <c r="J25" s="16"/>
+      <c r="K25" s="16"/>
+      <c r="L25" s="16"/>
+      <c r="M25" s="16"/>
     </row>
     <row r="26" spans="2:13">
-      <c r="B26" s="2"/>
+      <c r="B26" s="19"/>
       <c r="C26" s="3"/>
       <c r="D26" s="3"/>
       <c r="E26" s="3"/>
@@ -2176,41 +2170,41 @@
       <c r="G26" s="3"/>
       <c r="H26" s="3"/>
       <c r="I26" s="3"/>
-      <c r="J26" s="10"/>
+      <c r="J26" s="23"/>
       <c r="K26" s="3"/>
       <c r="L26" s="3"/>
       <c r="M26" s="3"/>
     </row>
     <row r="27" spans="2:13">
-      <c r="B27" s="2"/>
-      <c r="C27" s="14"/>
-      <c r="D27" s="14"/>
-      <c r="E27" s="14"/>
-      <c r="F27" s="14"/>
-      <c r="G27" s="14"/>
-      <c r="H27" s="14"/>
-      <c r="I27" s="14"/>
-      <c r="J27" s="14"/>
-      <c r="K27" s="14"/>
-      <c r="L27" s="14"/>
-      <c r="M27" s="14"/>
+      <c r="B27" s="19"/>
+      <c r="C27" s="16"/>
+      <c r="D27" s="16"/>
+      <c r="E27" s="16"/>
+      <c r="F27" s="16"/>
+      <c r="G27" s="16"/>
+      <c r="H27" s="16"/>
+      <c r="I27" s="16"/>
+      <c r="J27" s="16"/>
+      <c r="K27" s="16"/>
+      <c r="L27" s="16"/>
+      <c r="M27" s="16"/>
     </row>
     <row r="28" spans="2:13">
-      <c r="B28" s="2"/>
-      <c r="C28" s="14"/>
-      <c r="D28" s="14"/>
-      <c r="E28" s="14"/>
-      <c r="F28" s="14"/>
-      <c r="G28" s="14"/>
-      <c r="H28" s="14"/>
-      <c r="I28" s="14"/>
-      <c r="J28" s="14"/>
-      <c r="K28" s="14"/>
-      <c r="L28" s="14"/>
-      <c r="M28" s="14"/>
-    </row>
-    <row r="29" ht="13.5" spans="2:13">
-      <c r="B29" t="s">
+      <c r="B28" s="19"/>
+      <c r="C28" s="16"/>
+      <c r="D28" s="16"/>
+      <c r="E28" s="16"/>
+      <c r="F28" s="16"/>
+      <c r="G28" s="16"/>
+      <c r="H28" s="16"/>
+      <c r="I28" s="16"/>
+      <c r="J28" s="16"/>
+      <c r="K28" s="16"/>
+      <c r="L28" s="16"/>
+      <c r="M28" s="16"/>
+    </row>
+    <row r="29" spans="2:13">
+      <c r="B29" s="18" t="s">
         <v>3</v>
       </c>
       <c r="C29" s="3"/>
@@ -2220,7 +2214,7 @@
       <c r="G29" s="3"/>
       <c r="H29" s="3"/>
       <c r="I29" s="3"/>
-      <c r="J29" s="10" t="s">
+      <c r="J29" s="23" t="s">
         <v>4</v>
       </c>
       <c r="K29" s="3"/>
@@ -2228,77 +2222,77 @@
       <c r="M29" s="3"/>
     </row>
     <row r="30" spans="2:13">
-      <c r="B30" s="2"/>
-      <c r="C30" s="14"/>
-      <c r="D30" s="14"/>
-      <c r="E30" s="14"/>
-      <c r="F30" s="14"/>
-      <c r="G30" s="14"/>
-      <c r="H30" s="14"/>
-      <c r="I30" s="14"/>
-      <c r="J30" s="14"/>
-      <c r="K30" s="14"/>
-      <c r="L30" s="14"/>
-      <c r="M30" s="14"/>
+      <c r="B30" s="19"/>
+      <c r="C30" s="16"/>
+      <c r="D30" s="16"/>
+      <c r="E30" s="16"/>
+      <c r="F30" s="16"/>
+      <c r="G30" s="16"/>
+      <c r="H30" s="16"/>
+      <c r="I30" s="16"/>
+      <c r="J30" s="16"/>
+      <c r="K30" s="16"/>
+      <c r="L30" s="16"/>
+      <c r="M30" s="16"/>
     </row>
     <row r="31" spans="2:13">
-      <c r="B31" s="2"/>
-      <c r="C31" s="14"/>
-      <c r="D31" s="14"/>
-      <c r="E31" s="14"/>
-      <c r="F31" s="14"/>
-      <c r="G31" s="14"/>
-      <c r="H31" s="14"/>
-      <c r="I31" s="14"/>
-      <c r="J31" s="14"/>
-      <c r="K31" s="14"/>
-      <c r="L31" s="14"/>
-      <c r="M31" s="14"/>
+      <c r="B31" s="19"/>
+      <c r="C31" s="16"/>
+      <c r="D31" s="16"/>
+      <c r="E31" s="16"/>
+      <c r="F31" s="16"/>
+      <c r="G31" s="16"/>
+      <c r="H31" s="16"/>
+      <c r="I31" s="16"/>
+      <c r="J31" s="16"/>
+      <c r="K31" s="16"/>
+      <c r="L31" s="16"/>
+      <c r="M31" s="16"/>
     </row>
     <row r="32" spans="2:13">
-      <c r="B32" s="2"/>
-      <c r="C32" s="14"/>
-      <c r="D32" s="14"/>
-      <c r="E32" s="14"/>
-      <c r="F32" s="14"/>
-      <c r="G32" s="14"/>
-      <c r="H32" s="14"/>
-      <c r="I32" s="14"/>
-      <c r="J32" s="14"/>
-      <c r="K32" s="14"/>
-      <c r="L32" s="14"/>
-      <c r="M32" s="14"/>
+      <c r="B32" s="19"/>
+      <c r="C32" s="16"/>
+      <c r="D32" s="16"/>
+      <c r="E32" s="16"/>
+      <c r="F32" s="16"/>
+      <c r="G32" s="16"/>
+      <c r="H32" s="16"/>
+      <c r="I32" s="16"/>
+      <c r="J32" s="16"/>
+      <c r="K32" s="16"/>
+      <c r="L32" s="16"/>
+      <c r="M32" s="16"/>
     </row>
     <row r="33" spans="2:13">
-      <c r="B33" s="2"/>
-      <c r="C33" s="14"/>
-      <c r="D33" s="14"/>
-      <c r="E33" s="14"/>
-      <c r="F33" s="14"/>
-      <c r="G33" s="14"/>
-      <c r="H33" s="14"/>
-      <c r="I33" s="14"/>
-      <c r="J33" s="14"/>
-      <c r="K33" s="14"/>
-      <c r="L33" s="14"/>
-      <c r="M33" s="14"/>
+      <c r="B33" s="19"/>
+      <c r="C33" s="16"/>
+      <c r="D33" s="16"/>
+      <c r="E33" s="16"/>
+      <c r="F33" s="16"/>
+      <c r="G33" s="16"/>
+      <c r="H33" s="16"/>
+      <c r="I33" s="16"/>
+      <c r="J33" s="16"/>
+      <c r="K33" s="16"/>
+      <c r="L33" s="16"/>
+      <c r="M33" s="16"/>
     </row>
     <row r="34" spans="2:13">
-      <c r="B34" s="2"/>
-      <c r="C34" s="14"/>
-      <c r="D34" s="14"/>
-      <c r="E34" s="14"/>
-      <c r="F34" s="14"/>
-      <c r="G34" s="14"/>
-      <c r="H34" s="14"/>
-      <c r="I34" s="14"/>
-      <c r="J34" s="14"/>
-      <c r="K34" s="14"/>
-      <c r="L34" s="14"/>
-      <c r="M34" s="14"/>
+      <c r="B34" s="19"/>
+      <c r="C34" s="16"/>
+      <c r="D34" s="16"/>
+      <c r="E34" s="16"/>
+      <c r="F34" s="16"/>
+      <c r="G34" s="16"/>
+      <c r="H34" s="16"/>
+      <c r="I34" s="16"/>
+      <c r="J34" s="16"/>
+      <c r="K34" s="16"/>
+      <c r="L34" s="16"/>
+      <c r="M34" s="16"/>
     </row>
     <row r="35" spans="2:13">
-      <c r="B35" s="2"/>
+      <c r="B35" s="19"/>
       <c r="C35" s="3"/>
       <c r="D35" s="3"/>
       <c r="E35" s="3"/>
@@ -2306,13 +2300,13 @@
       <c r="G35" s="3"/>
       <c r="H35" s="3"/>
       <c r="I35" s="3"/>
-      <c r="J35" s="10"/>
+      <c r="J35" s="23"/>
       <c r="K35" s="3"/>
       <c r="L35" s="3"/>
       <c r="M35" s="3"/>
     </row>
     <row r="36" spans="2:13">
-      <c r="B36" s="2"/>
+      <c r="B36" s="19"/>
       <c r="C36" s="3"/>
       <c r="D36" s="3"/>
       <c r="E36" s="3"/>
@@ -2320,132 +2314,132 @@
       <c r="G36" s="3"/>
       <c r="H36" s="3"/>
       <c r="I36" s="3"/>
-      <c r="J36" s="10"/>
+      <c r="J36" s="23"/>
       <c r="K36" s="3"/>
       <c r="L36" s="3"/>
       <c r="M36" s="3"/>
     </row>
     <row r="37" spans="2:2">
-      <c r="B37" s="2"/>
+      <c r="B37" s="19"/>
     </row>
     <row r="39" spans="2:13">
-      <c r="B39" s="2"/>
-      <c r="C39" s="2" t="s">
+      <c r="B39" s="19"/>
+      <c r="C39" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="D39" s="2"/>
-      <c r="E39" s="2"/>
-      <c r="F39" s="2"/>
-      <c r="G39" s="2"/>
-      <c r="H39" s="2"/>
-      <c r="I39" s="2" t="s">
+      <c r="D39" s="19"/>
+      <c r="E39" s="19"/>
+      <c r="F39" s="19"/>
+      <c r="G39" s="19"/>
+      <c r="H39" s="19"/>
+      <c r="I39" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="J39" s="2"/>
-      <c r="K39" s="2"/>
-      <c r="L39" s="2"/>
-      <c r="M39" s="2"/>
+      <c r="J39" s="19"/>
+      <c r="K39" s="19"/>
+      <c r="L39" s="19"/>
+      <c r="M39" s="19"/>
     </row>
     <row r="40" spans="2:13">
-      <c r="B40" s="2"/>
-      <c r="C40" s="14"/>
-      <c r="D40" s="14"/>
-      <c r="E40" s="14"/>
-      <c r="F40" s="14"/>
-      <c r="G40" s="14"/>
-      <c r="H40" s="14"/>
-      <c r="I40" s="14"/>
-      <c r="J40" s="14"/>
-      <c r="K40" s="14"/>
-      <c r="L40" s="14"/>
-      <c r="M40" s="14"/>
+      <c r="B40" s="19"/>
+      <c r="C40" s="16"/>
+      <c r="D40" s="16"/>
+      <c r="E40" s="16"/>
+      <c r="F40" s="16"/>
+      <c r="G40" s="16"/>
+      <c r="H40" s="16"/>
+      <c r="I40" s="16"/>
+      <c r="J40" s="16"/>
+      <c r="K40" s="16"/>
+      <c r="L40" s="16"/>
+      <c r="M40" s="16"/>
     </row>
     <row r="41" spans="2:13">
-      <c r="B41" s="2"/>
+      <c r="B41" s="19"/>
       <c r="C41" s="3"/>
       <c r="D41" s="3"/>
       <c r="E41" s="3"/>
       <c r="F41" s="3"/>
       <c r="G41" s="3"/>
-      <c r="H41" s="10"/>
-      <c r="I41" s="10"/>
-      <c r="J41" s="10"/>
+      <c r="H41" s="23"/>
+      <c r="I41" s="23"/>
+      <c r="J41" s="23"/>
       <c r="K41" s="3"/>
       <c r="L41" s="3"/>
       <c r="M41" s="3"/>
     </row>
     <row r="42" spans="2:13">
-      <c r="B42" s="2"/>
+      <c r="B42" s="19"/>
       <c r="C42" s="3"/>
       <c r="D42" s="3"/>
       <c r="E42" s="3"/>
       <c r="F42" s="3"/>
       <c r="G42" s="3"/>
-      <c r="H42" s="10"/>
-      <c r="I42" s="10"/>
-      <c r="J42" s="10"/>
+      <c r="H42" s="23"/>
+      <c r="I42" s="23"/>
+      <c r="J42" s="23"/>
       <c r="K42" s="3"/>
       <c r="L42" s="3"/>
       <c r="M42" s="3"/>
     </row>
     <row r="43" spans="2:13">
-      <c r="B43" s="2"/>
-      <c r="C43" s="14"/>
-      <c r="D43" s="14"/>
-      <c r="E43" s="14"/>
-      <c r="F43" s="14"/>
-      <c r="G43" s="14"/>
-      <c r="H43" s="14"/>
-      <c r="I43" s="14"/>
-      <c r="J43" s="14"/>
-      <c r="K43" s="14"/>
-      <c r="L43" s="14"/>
-      <c r="M43" s="14"/>
+      <c r="B43" s="19"/>
+      <c r="C43" s="16"/>
+      <c r="D43" s="16"/>
+      <c r="E43" s="16"/>
+      <c r="F43" s="16"/>
+      <c r="G43" s="16"/>
+      <c r="H43" s="16"/>
+      <c r="I43" s="16"/>
+      <c r="J43" s="16"/>
+      <c r="K43" s="16"/>
+      <c r="L43" s="16"/>
+      <c r="M43" s="16"/>
     </row>
     <row r="44" spans="2:13">
-      <c r="B44" s="2"/>
+      <c r="B44" s="19"/>
       <c r="C44" s="3"/>
       <c r="D44" s="3"/>
       <c r="E44" s="3"/>
       <c r="F44" s="3"/>
       <c r="G44" s="3"/>
-      <c r="H44" s="10"/>
-      <c r="I44" s="10"/>
-      <c r="J44" s="10"/>
+      <c r="H44" s="23"/>
+      <c r="I44" s="23"/>
+      <c r="J44" s="23"/>
       <c r="K44" s="3"/>
       <c r="L44" s="3"/>
       <c r="M44" s="3"/>
     </row>
     <row r="45" spans="2:13">
-      <c r="B45" s="2"/>
-      <c r="C45" s="14"/>
-      <c r="D45" s="14"/>
-      <c r="E45" s="14"/>
-      <c r="F45" s="14"/>
-      <c r="G45" s="14"/>
-      <c r="H45" s="14"/>
-      <c r="I45" s="14"/>
-      <c r="J45" s="14"/>
-      <c r="K45" s="14"/>
-      <c r="L45" s="14"/>
-      <c r="M45" s="14"/>
+      <c r="B45" s="19"/>
+      <c r="C45" s="16"/>
+      <c r="D45" s="16"/>
+      <c r="E45" s="16"/>
+      <c r="F45" s="16"/>
+      <c r="G45" s="16"/>
+      <c r="H45" s="16"/>
+      <c r="I45" s="16"/>
+      <c r="J45" s="16"/>
+      <c r="K45" s="16"/>
+      <c r="L45" s="16"/>
+      <c r="M45" s="16"/>
     </row>
     <row r="46" spans="2:13">
-      <c r="B46" s="2"/>
-      <c r="C46" s="14"/>
-      <c r="D46" s="14"/>
-      <c r="E46" s="14"/>
-      <c r="F46" s="14"/>
-      <c r="G46" s="14"/>
-      <c r="H46" s="14"/>
-      <c r="I46" s="14"/>
-      <c r="J46" s="14"/>
-      <c r="K46" s="14"/>
-      <c r="L46" s="14"/>
-      <c r="M46" s="14"/>
-    </row>
-    <row r="47" ht="13.5" spans="2:13">
-      <c r="B47" t="s">
+      <c r="B46" s="19"/>
+      <c r="C46" s="16"/>
+      <c r="D46" s="16"/>
+      <c r="E46" s="16"/>
+      <c r="F46" s="16"/>
+      <c r="G46" s="16"/>
+      <c r="H46" s="16"/>
+      <c r="I46" s="16"/>
+      <c r="J46" s="16"/>
+      <c r="K46" s="16"/>
+      <c r="L46" s="16"/>
+      <c r="M46" s="16"/>
+    </row>
+    <row r="47" spans="2:13">
+      <c r="B47" s="18" t="s">
         <v>3</v>
       </c>
       <c r="C47" s="3"/>
@@ -2453,9 +2447,9 @@
       <c r="E47" s="3"/>
       <c r="F47" s="3"/>
       <c r="G47" s="3"/>
-      <c r="H47" s="10"/>
-      <c r="I47" s="10"/>
-      <c r="J47" s="10" t="s">
+      <c r="H47" s="23"/>
+      <c r="I47" s="23"/>
+      <c r="J47" s="23" t="s">
         <v>4</v>
       </c>
       <c r="K47" s="3"/>
@@ -2463,614 +2457,614 @@
       <c r="M47" s="3"/>
     </row>
     <row r="48" spans="2:13">
-      <c r="B48" s="2"/>
-      <c r="C48" s="14"/>
-      <c r="D48" s="14"/>
-      <c r="E48" s="14"/>
-      <c r="F48" s="14"/>
-      <c r="G48" s="14"/>
-      <c r="H48" s="14"/>
-      <c r="I48" s="14"/>
-      <c r="J48" s="14"/>
-      <c r="K48" s="14"/>
-      <c r="L48" s="14"/>
-      <c r="M48" s="14"/>
+      <c r="B48" s="19"/>
+      <c r="C48" s="16"/>
+      <c r="D48" s="16"/>
+      <c r="E48" s="16"/>
+      <c r="F48" s="16"/>
+      <c r="G48" s="16"/>
+      <c r="H48" s="16"/>
+      <c r="I48" s="16"/>
+      <c r="J48" s="16"/>
+      <c r="K48" s="16"/>
+      <c r="L48" s="16"/>
+      <c r="M48" s="16"/>
     </row>
     <row r="49" spans="2:13">
-      <c r="B49" s="2"/>
-      <c r="C49" s="14"/>
-      <c r="D49" s="14"/>
-      <c r="E49" s="14"/>
-      <c r="F49" s="14"/>
-      <c r="G49" s="14"/>
-      <c r="H49" s="14"/>
-      <c r="I49" s="14"/>
-      <c r="J49" s="14"/>
-      <c r="K49" s="14"/>
-      <c r="L49" s="14"/>
-      <c r="M49" s="14"/>
+      <c r="B49" s="19"/>
+      <c r="C49" s="16"/>
+      <c r="D49" s="16"/>
+      <c r="E49" s="16"/>
+      <c r="F49" s="16"/>
+      <c r="G49" s="16"/>
+      <c r="H49" s="16"/>
+      <c r="I49" s="16"/>
+      <c r="J49" s="16"/>
+      <c r="K49" s="16"/>
+      <c r="L49" s="16"/>
+      <c r="M49" s="16"/>
     </row>
     <row r="50" spans="2:13">
-      <c r="B50" s="2"/>
-      <c r="C50" s="14"/>
-      <c r="D50" s="14"/>
-      <c r="E50" s="14"/>
-      <c r="F50" s="14"/>
-      <c r="G50" s="14"/>
-      <c r="H50" s="14"/>
-      <c r="I50" s="14"/>
-      <c r="J50" s="14"/>
-      <c r="K50" s="14"/>
-      <c r="L50" s="14"/>
-      <c r="M50" s="14"/>
+      <c r="B50" s="19"/>
+      <c r="C50" s="16"/>
+      <c r="D50" s="16"/>
+      <c r="E50" s="16"/>
+      <c r="F50" s="16"/>
+      <c r="G50" s="16"/>
+      <c r="H50" s="16"/>
+      <c r="I50" s="16"/>
+      <c r="J50" s="16"/>
+      <c r="K50" s="16"/>
+      <c r="L50" s="16"/>
+      <c r="M50" s="16"/>
     </row>
     <row r="51" spans="2:13">
-      <c r="B51" s="2"/>
-      <c r="C51" s="14"/>
-      <c r="D51" s="14"/>
-      <c r="E51" s="14"/>
-      <c r="F51" s="14"/>
-      <c r="G51" s="14"/>
-      <c r="H51" s="14"/>
-      <c r="I51" s="14"/>
-      <c r="J51" s="14"/>
-      <c r="K51" s="14"/>
-      <c r="L51" s="14"/>
-      <c r="M51" s="14"/>
+      <c r="B51" s="19"/>
+      <c r="C51" s="16"/>
+      <c r="D51" s="16"/>
+      <c r="E51" s="16"/>
+      <c r="F51" s="16"/>
+      <c r="G51" s="16"/>
+      <c r="H51" s="16"/>
+      <c r="I51" s="16"/>
+      <c r="J51" s="16"/>
+      <c r="K51" s="16"/>
+      <c r="L51" s="16"/>
+      <c r="M51" s="16"/>
     </row>
     <row r="52" spans="2:13">
-      <c r="B52" s="2"/>
-      <c r="C52" s="14"/>
-      <c r="D52" s="14"/>
-      <c r="E52" s="14"/>
-      <c r="F52" s="14"/>
-      <c r="G52" s="14"/>
-      <c r="H52" s="14"/>
-      <c r="I52" s="14"/>
-      <c r="J52" s="14"/>
-      <c r="K52" s="14"/>
-      <c r="L52" s="14"/>
-      <c r="M52" s="14"/>
+      <c r="B52" s="19"/>
+      <c r="C52" s="16"/>
+      <c r="D52" s="16"/>
+      <c r="E52" s="16"/>
+      <c r="F52" s="16"/>
+      <c r="G52" s="16"/>
+      <c r="H52" s="16"/>
+      <c r="I52" s="16"/>
+      <c r="J52" s="16"/>
+      <c r="K52" s="16"/>
+      <c r="L52" s="16"/>
+      <c r="M52" s="16"/>
     </row>
     <row r="53" spans="2:13">
-      <c r="B53" s="2"/>
+      <c r="B53" s="19"/>
       <c r="C53" s="3"/>
       <c r="D53" s="3"/>
       <c r="E53" s="3"/>
       <c r="F53" s="3"/>
       <c r="G53" s="3"/>
-      <c r="H53" s="10"/>
-      <c r="I53" s="10"/>
-      <c r="J53" s="10"/>
+      <c r="H53" s="23"/>
+      <c r="I53" s="23"/>
+      <c r="J53" s="23"/>
       <c r="K53" s="3"/>
       <c r="L53" s="3"/>
       <c r="M53" s="3"/>
     </row>
     <row r="54" spans="2:13">
-      <c r="B54" s="2"/>
+      <c r="B54" s="19"/>
       <c r="C54" s="3"/>
       <c r="D54" s="3"/>
       <c r="E54" s="3"/>
       <c r="F54" s="3"/>
       <c r="G54" s="3"/>
-      <c r="H54" s="10"/>
-      <c r="I54" s="10"/>
-      <c r="J54" s="10"/>
+      <c r="H54" s="23"/>
+      <c r="I54" s="23"/>
+      <c r="J54" s="23"/>
       <c r="K54" s="3"/>
       <c r="L54" s="3"/>
       <c r="M54" s="3"/>
     </row>
     <row r="55" spans="2:2">
-      <c r="B55" s="2"/>
+      <c r="B55" s="19"/>
     </row>
     <row r="60" spans="2:17">
-      <c r="B60" s="16"/>
-      <c r="C60" s="16" t="s">
+      <c r="B60" s="19"/>
+      <c r="C60" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="D60" s="16"/>
-      <c r="E60" s="16"/>
-      <c r="F60" s="16"/>
-      <c r="G60" s="16"/>
-      <c r="H60" s="16"/>
-      <c r="I60" s="16" t="s">
+      <c r="D60" s="19"/>
+      <c r="E60" s="19"/>
+      <c r="F60" s="19"/>
+      <c r="G60" s="19"/>
+      <c r="H60" s="19"/>
+      <c r="I60" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="J60" s="16"/>
-      <c r="K60" s="16"/>
-      <c r="L60" s="16"/>
-      <c r="M60" s="16"/>
-      <c r="O60" s="25" t="s">
+      <c r="J60" s="19"/>
+      <c r="K60" s="19"/>
+      <c r="L60" s="19"/>
+      <c r="M60" s="19"/>
+      <c r="O60" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="Q60" s="25" t="s">
+      <c r="Q60" s="14" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="61" spans="2:17">
-      <c r="B61" s="16"/>
-      <c r="C61" s="17"/>
-      <c r="D61" s="18"/>
-      <c r="E61" s="18"/>
-      <c r="F61" s="20"/>
-      <c r="G61" s="18"/>
-      <c r="H61" s="18"/>
-      <c r="I61" s="18"/>
-      <c r="J61" s="18"/>
-      <c r="K61" s="17"/>
-      <c r="L61" s="18"/>
-      <c r="M61" s="20"/>
-      <c r="N61"/>
-      <c r="O61" s="26"/>
-      <c r="Q61" s="26"/>
+      <c r="B61" s="19"/>
+      <c r="C61" s="20"/>
+      <c r="D61" s="21"/>
+      <c r="E61" s="21"/>
+      <c r="F61" s="24"/>
+      <c r="G61" s="21"/>
+      <c r="H61" s="21"/>
+      <c r="I61" s="21"/>
+      <c r="J61" s="21"/>
+      <c r="K61" s="20"/>
+      <c r="L61" s="21"/>
+      <c r="M61" s="24"/>
+      <c r="N61" s="18"/>
+      <c r="O61" s="30"/>
+      <c r="Q61" s="30"/>
     </row>
     <row r="62" spans="2:17">
-      <c r="B62" s="16"/>
-      <c r="C62" s="19"/>
-      <c r="D62"/>
-      <c r="E62"/>
-      <c r="F62" s="21"/>
-      <c r="G62"/>
-      <c r="H62"/>
-      <c r="I62"/>
-      <c r="J62"/>
-      <c r="K62" s="19"/>
-      <c r="L62"/>
-      <c r="M62" s="21"/>
-      <c r="O62" s="23"/>
-      <c r="Q62" s="23"/>
+      <c r="B62" s="19"/>
+      <c r="C62" s="22"/>
+      <c r="D62" s="18"/>
+      <c r="E62" s="18"/>
+      <c r="F62" s="25"/>
+      <c r="G62" s="18"/>
+      <c r="H62" s="18"/>
+      <c r="I62" s="18"/>
+      <c r="J62" s="18"/>
+      <c r="K62" s="22"/>
+      <c r="L62" s="18"/>
+      <c r="M62" s="25"/>
+      <c r="O62" s="28"/>
+      <c r="Q62" s="28"/>
     </row>
     <row r="63" spans="2:17">
-      <c r="B63" s="16"/>
-      <c r="C63" s="19"/>
-      <c r="D63"/>
-      <c r="E63"/>
-      <c r="F63" s="21"/>
-      <c r="G63"/>
-      <c r="H63"/>
-      <c r="I63"/>
-      <c r="J63"/>
-      <c r="K63" s="19"/>
-      <c r="L63"/>
-      <c r="M63" s="21"/>
-      <c r="O63" s="23"/>
-      <c r="Q63" s="23"/>
+      <c r="B63" s="19"/>
+      <c r="C63" s="22"/>
+      <c r="D63" s="18"/>
+      <c r="E63" s="18"/>
+      <c r="F63" s="25"/>
+      <c r="G63" s="18"/>
+      <c r="H63" s="18"/>
+      <c r="I63" s="18"/>
+      <c r="J63" s="18"/>
+      <c r="K63" s="22"/>
+      <c r="L63" s="18"/>
+      <c r="M63" s="25"/>
+      <c r="O63" s="28"/>
+      <c r="Q63" s="28"/>
     </row>
     <row r="64" spans="2:17">
-      <c r="B64" s="16"/>
-      <c r="C64" s="19"/>
-      <c r="F64" s="21"/>
-      <c r="K64" s="19"/>
-      <c r="M64" s="21"/>
-      <c r="O64" s="23"/>
-      <c r="Q64" s="23"/>
+      <c r="B64" s="19"/>
+      <c r="C64" s="22"/>
+      <c r="F64" s="25"/>
+      <c r="K64" s="22"/>
+      <c r="M64" s="25"/>
+      <c r="O64" s="28"/>
+      <c r="Q64" s="28"/>
     </row>
     <row r="65" spans="2:17">
-      <c r="B65" s="16"/>
-      <c r="C65" s="27"/>
-      <c r="D65" s="28"/>
-      <c r="E65" s="28"/>
-      <c r="F65" s="30"/>
-      <c r="G65" s="31"/>
-      <c r="H65" s="31"/>
-      <c r="I65" s="31"/>
-      <c r="J65" s="31"/>
-      <c r="K65" s="27"/>
-      <c r="L65" s="28"/>
-      <c r="M65" s="30"/>
-      <c r="O65" s="23"/>
-      <c r="Q65" s="23"/>
+      <c r="B65" s="19"/>
+      <c r="C65" s="31"/>
+      <c r="D65" s="32"/>
+      <c r="E65" s="32"/>
+      <c r="F65" s="34"/>
+      <c r="G65" s="15"/>
+      <c r="H65" s="15"/>
+      <c r="I65" s="15"/>
+      <c r="J65" s="15"/>
+      <c r="K65" s="31"/>
+      <c r="L65" s="32"/>
+      <c r="M65" s="34"/>
+      <c r="O65" s="28"/>
+      <c r="Q65" s="28"/>
     </row>
     <row r="66" spans="2:17">
-      <c r="B66" s="16"/>
-      <c r="C66" s="19"/>
-      <c r="D66"/>
-      <c r="E66"/>
-      <c r="F66" s="32"/>
-      <c r="G66" s="29"/>
-      <c r="H66" s="29"/>
-      <c r="I66" s="29"/>
-      <c r="J66" s="29"/>
-      <c r="K66" s="35"/>
-      <c r="L66"/>
-      <c r="M66" s="21"/>
+      <c r="B66" s="19"/>
+      <c r="C66" s="22"/>
+      <c r="D66" s="18"/>
+      <c r="E66" s="18"/>
+      <c r="F66" s="15"/>
+      <c r="G66" s="33"/>
+      <c r="H66" s="33"/>
+      <c r="I66" s="33"/>
+      <c r="J66" s="33"/>
+      <c r="K66" s="15"/>
+      <c r="L66" s="18"/>
+      <c r="M66" s="25"/>
       <c r="O66" s="37"/>
       <c r="Q66" s="38"/>
     </row>
     <row r="67" spans="2:17">
-      <c r="B67" s="16"/>
-      <c r="C67" s="19"/>
-      <c r="D67"/>
-      <c r="E67"/>
-      <c r="F67" s="32"/>
-      <c r="G67" s="29"/>
-      <c r="H67" s="29"/>
-      <c r="I67" s="29"/>
-      <c r="J67" s="29"/>
-      <c r="K67" s="35"/>
-      <c r="L67"/>
-      <c r="M67" s="21"/>
+      <c r="B67" s="19"/>
+      <c r="C67" s="22"/>
+      <c r="D67" s="18"/>
+      <c r="E67" s="18"/>
+      <c r="F67" s="15"/>
+      <c r="G67" s="33"/>
+      <c r="H67" s="33"/>
+      <c r="I67" s="33"/>
+      <c r="J67" s="33"/>
+      <c r="K67" s="15"/>
+      <c r="L67" s="18"/>
+      <c r="M67" s="25"/>
       <c r="O67" s="37"/>
       <c r="Q67" s="38"/>
     </row>
-    <row r="68" ht="13.5" spans="2:17">
-      <c r="B68" t="s">
+    <row r="68" spans="2:17">
+      <c r="B68" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="C68" s="19"/>
-      <c r="D68"/>
-      <c r="E68"/>
-      <c r="F68" s="32"/>
-      <c r="G68" s="29"/>
-      <c r="H68" s="29"/>
-      <c r="I68" s="29"/>
-      <c r="J68" s="29"/>
-      <c r="K68" s="35"/>
-      <c r="L68"/>
-      <c r="M68" s="21"/>
+      <c r="C68" s="22"/>
+      <c r="D68" s="18"/>
+      <c r="E68" s="18"/>
+      <c r="F68" s="15"/>
+      <c r="G68" s="33"/>
+      <c r="H68" s="33"/>
+      <c r="I68" s="33"/>
+      <c r="J68" s="33"/>
+      <c r="K68" s="15"/>
+      <c r="L68" s="18"/>
+      <c r="M68" s="25"/>
       <c r="O68" s="37"/>
       <c r="Q68" s="38"/>
     </row>
     <row r="69" spans="2:17">
-      <c r="B69" s="16"/>
-      <c r="C69" s="19"/>
-      <c r="F69" s="32"/>
-      <c r="G69" s="29"/>
-      <c r="H69" s="29"/>
-      <c r="I69" s="29"/>
-      <c r="J69" s="29"/>
-      <c r="K69" s="35"/>
-      <c r="M69" s="21"/>
+      <c r="B69" s="19"/>
+      <c r="C69" s="22"/>
+      <c r="F69" s="15"/>
+      <c r="G69" s="33"/>
+      <c r="H69" s="33"/>
+      <c r="I69" s="33"/>
+      <c r="J69" s="33"/>
+      <c r="K69" s="15"/>
+      <c r="M69" s="25"/>
       <c r="O69" s="37"/>
       <c r="Q69" s="38"/>
     </row>
     <row r="70" spans="2:17">
-      <c r="B70" s="16"/>
-      <c r="C70" s="19"/>
-      <c r="F70" s="32"/>
-      <c r="G70" s="29"/>
-      <c r="H70" s="29"/>
-      <c r="I70" s="29"/>
-      <c r="J70" s="29"/>
-      <c r="K70" s="35"/>
-      <c r="M70" s="21"/>
+      <c r="B70" s="19"/>
+      <c r="C70" s="22"/>
+      <c r="F70" s="15"/>
+      <c r="G70" s="33"/>
+      <c r="H70" s="33"/>
+      <c r="I70" s="33"/>
+      <c r="J70" s="33"/>
+      <c r="K70" s="15"/>
+      <c r="M70" s="25"/>
       <c r="O70" s="37"/>
       <c r="Q70" s="38"/>
     </row>
     <row r="71" spans="2:17">
-      <c r="B71" s="16"/>
-      <c r="C71" s="17"/>
-      <c r="D71" s="18"/>
-      <c r="E71" s="18"/>
-      <c r="F71" s="20"/>
-      <c r="G71" s="33"/>
-      <c r="H71" s="33"/>
-      <c r="I71" s="33"/>
-      <c r="J71" s="33"/>
-      <c r="K71" s="17"/>
-      <c r="L71" s="18"/>
-      <c r="M71" s="20"/>
-      <c r="O71" s="23"/>
-      <c r="Q71" s="23"/>
+      <c r="B71" s="19"/>
+      <c r="C71" s="20"/>
+      <c r="D71" s="21"/>
+      <c r="E71" s="21"/>
+      <c r="F71" s="24"/>
+      <c r="G71" s="15"/>
+      <c r="H71" s="15"/>
+      <c r="I71" s="15"/>
+      <c r="J71" s="15"/>
+      <c r="K71" s="20"/>
+      <c r="L71" s="21"/>
+      <c r="M71" s="24"/>
+      <c r="O71" s="28"/>
+      <c r="Q71" s="28"/>
     </row>
     <row r="72" spans="2:17">
-      <c r="B72" s="16"/>
-      <c r="C72" s="19"/>
-      <c r="F72" s="21"/>
-      <c r="K72" s="19"/>
-      <c r="M72" s="21"/>
-      <c r="O72" s="23"/>
-      <c r="Q72" s="23"/>
+      <c r="B72" s="19"/>
+      <c r="C72" s="22"/>
+      <c r="F72" s="25"/>
+      <c r="K72" s="22"/>
+      <c r="M72" s="25"/>
+      <c r="O72" s="28"/>
+      <c r="Q72" s="28"/>
     </row>
     <row r="73" spans="2:17">
-      <c r="B73" s="16"/>
-      <c r="C73" s="19"/>
-      <c r="F73" s="21"/>
-      <c r="K73" s="19"/>
-      <c r="M73" s="21"/>
-      <c r="O73" s="23"/>
-      <c r="Q73" s="23"/>
+      <c r="B73" s="19"/>
+      <c r="C73" s="22"/>
+      <c r="F73" s="25"/>
+      <c r="K73" s="22"/>
+      <c r="M73" s="25"/>
+      <c r="O73" s="28"/>
+      <c r="Q73" s="28"/>
     </row>
     <row r="74" spans="2:17">
-      <c r="B74" s="16"/>
-      <c r="C74" s="19"/>
-      <c r="D74"/>
-      <c r="E74"/>
-      <c r="F74" s="21"/>
-      <c r="G74"/>
-      <c r="H74"/>
-      <c r="I74"/>
-      <c r="J74"/>
-      <c r="K74" s="19"/>
-      <c r="L74"/>
-      <c r="M74" s="21"/>
-      <c r="O74" s="23"/>
-      <c r="Q74" s="23"/>
+      <c r="B74" s="19"/>
+      <c r="C74" s="22"/>
+      <c r="D74" s="18"/>
+      <c r="E74" s="18"/>
+      <c r="F74" s="25"/>
+      <c r="G74" s="18"/>
+      <c r="H74" s="18"/>
+      <c r="I74" s="18"/>
+      <c r="J74" s="18"/>
+      <c r="K74" s="22"/>
+      <c r="L74" s="18"/>
+      <c r="M74" s="25"/>
+      <c r="O74" s="28"/>
+      <c r="Q74" s="28"/>
     </row>
     <row r="75" spans="2:17">
-      <c r="B75" s="16"/>
-      <c r="C75" s="27"/>
-      <c r="D75" s="28"/>
-      <c r="E75" s="28"/>
-      <c r="F75" s="30"/>
-      <c r="G75" s="28"/>
-      <c r="H75" s="28"/>
-      <c r="I75" s="28"/>
-      <c r="J75" s="28"/>
-      <c r="K75" s="27"/>
-      <c r="L75" s="28"/>
-      <c r="M75" s="30"/>
-      <c r="N75"/>
-      <c r="O75" s="24"/>
-      <c r="Q75" s="24"/>
+      <c r="B75" s="19"/>
+      <c r="C75" s="31"/>
+      <c r="D75" s="32"/>
+      <c r="E75" s="32"/>
+      <c r="F75" s="34"/>
+      <c r="G75" s="32"/>
+      <c r="H75" s="32"/>
+      <c r="I75" s="32"/>
+      <c r="J75" s="32"/>
+      <c r="K75" s="31"/>
+      <c r="L75" s="32"/>
+      <c r="M75" s="34"/>
+      <c r="N75" s="18"/>
+      <c r="O75" s="17"/>
+      <c r="Q75" s="17"/>
     </row>
     <row r="79" spans="2:15">
-      <c r="B79" s="16"/>
-      <c r="C79" s="16" t="s">
+      <c r="B79" s="19"/>
+      <c r="C79" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="D79" s="16"/>
-      <c r="E79" s="16"/>
-      <c r="F79" s="16"/>
-      <c r="G79" s="16"/>
-      <c r="H79" s="16"/>
-      <c r="I79" s="16" t="s">
+      <c r="D79" s="19"/>
+      <c r="E79" s="19"/>
+      <c r="F79" s="19"/>
+      <c r="G79" s="19"/>
+      <c r="H79" s="19"/>
+      <c r="I79" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="J79" s="16"/>
-      <c r="K79" s="16"/>
-      <c r="L79" s="16"/>
-      <c r="M79" s="16"/>
-      <c r="O79" s="25" t="s">
+      <c r="J79" s="19"/>
+      <c r="K79" s="19"/>
+      <c r="L79" s="19"/>
+      <c r="M79" s="19"/>
+      <c r="O79" s="14" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="80" spans="2:15">
-      <c r="B80" s="16"/>
-      <c r="C80" s="14"/>
-      <c r="D80" s="14"/>
-      <c r="E80" s="14"/>
-      <c r="F80" s="14"/>
-      <c r="G80" s="14"/>
-      <c r="H80" s="14"/>
-      <c r="I80" s="14"/>
-      <c r="J80" s="14"/>
-      <c r="K80" s="14"/>
-      <c r="L80" s="14"/>
-      <c r="M80" s="14"/>
-      <c r="N80"/>
-      <c r="O80" s="26"/>
+      <c r="B80" s="19"/>
+      <c r="C80" s="16"/>
+      <c r="D80" s="16"/>
+      <c r="E80" s="16"/>
+      <c r="F80" s="16"/>
+      <c r="G80" s="16"/>
+      <c r="H80" s="16"/>
+      <c r="I80" s="16"/>
+      <c r="J80" s="16"/>
+      <c r="K80" s="16"/>
+      <c r="L80" s="16"/>
+      <c r="M80" s="16"/>
+      <c r="N80" s="18"/>
+      <c r="O80" s="30"/>
     </row>
     <row r="81" spans="2:15">
-      <c r="B81" s="16"/>
-      <c r="C81" s="14"/>
-      <c r="D81" s="14"/>
-      <c r="E81" s="14"/>
-      <c r="F81" s="14"/>
-      <c r="G81" s="14"/>
-      <c r="H81" s="14"/>
-      <c r="I81" s="14"/>
-      <c r="J81" s="14"/>
-      <c r="K81" s="14"/>
-      <c r="L81" s="14"/>
-      <c r="M81" s="14"/>
-      <c r="O81" s="23"/>
+      <c r="B81" s="19"/>
+      <c r="C81" s="16"/>
+      <c r="D81" s="16"/>
+      <c r="E81" s="16"/>
+      <c r="F81" s="16"/>
+      <c r="G81" s="16"/>
+      <c r="H81" s="16"/>
+      <c r="I81" s="16"/>
+      <c r="J81" s="16"/>
+      <c r="K81" s="16"/>
+      <c r="L81" s="16"/>
+      <c r="M81" s="16"/>
+      <c r="O81" s="28"/>
     </row>
     <row r="82" spans="2:15">
-      <c r="B82" s="16"/>
-      <c r="C82" s="14"/>
-      <c r="D82" s="14"/>
-      <c r="E82" s="14"/>
-      <c r="F82" s="14"/>
-      <c r="G82" s="14"/>
-      <c r="H82" s="14"/>
-      <c r="I82" s="14"/>
-      <c r="J82" s="14"/>
-      <c r="K82" s="14"/>
-      <c r="L82" s="14"/>
-      <c r="M82" s="14"/>
-      <c r="O82" s="23"/>
+      <c r="B82" s="19"/>
+      <c r="C82" s="16"/>
+      <c r="D82" s="16"/>
+      <c r="E82" s="16"/>
+      <c r="F82" s="16"/>
+      <c r="G82" s="16"/>
+      <c r="H82" s="16"/>
+      <c r="I82" s="16"/>
+      <c r="J82" s="16"/>
+      <c r="K82" s="16"/>
+      <c r="L82" s="16"/>
+      <c r="M82" s="16"/>
+      <c r="O82" s="28"/>
     </row>
     <row r="83" spans="2:15">
-      <c r="B83" s="16"/>
-      <c r="C83" s="14"/>
-      <c r="D83" s="14"/>
-      <c r="E83" s="14"/>
-      <c r="F83" s="14"/>
-      <c r="G83" s="14"/>
-      <c r="H83" s="14"/>
-      <c r="I83" s="14"/>
-      <c r="J83" s="14"/>
-      <c r="K83" s="14"/>
-      <c r="L83" s="14"/>
-      <c r="M83" s="14"/>
-      <c r="O83" s="23"/>
+      <c r="B83" s="19"/>
+      <c r="C83" s="16"/>
+      <c r="D83" s="16"/>
+      <c r="E83" s="16"/>
+      <c r="F83" s="16"/>
+      <c r="G83" s="16"/>
+      <c r="H83" s="16"/>
+      <c r="I83" s="16"/>
+      <c r="J83" s="16"/>
+      <c r="K83" s="16"/>
+      <c r="L83" s="16"/>
+      <c r="M83" s="16"/>
+      <c r="O83" s="28"/>
     </row>
     <row r="84" spans="2:15">
-      <c r="B84" s="16"/>
-      <c r="C84" s="14"/>
-      <c r="D84" s="14"/>
-      <c r="E84" s="14"/>
-      <c r="F84" s="14"/>
-      <c r="G84" s="14"/>
-      <c r="H84" s="14"/>
-      <c r="I84" s="14"/>
-      <c r="J84" s="14"/>
-      <c r="K84" s="14"/>
-      <c r="L84" s="14"/>
-      <c r="M84" s="14"/>
-      <c r="O84" s="23"/>
+      <c r="B84" s="19"/>
+      <c r="C84" s="16"/>
+      <c r="D84" s="16"/>
+      <c r="E84" s="16"/>
+      <c r="F84" s="16"/>
+      <c r="G84" s="16"/>
+      <c r="H84" s="16"/>
+      <c r="I84" s="16"/>
+      <c r="J84" s="16"/>
+      <c r="K84" s="16"/>
+      <c r="L84" s="16"/>
+      <c r="M84" s="16"/>
+      <c r="O84" s="28"/>
     </row>
     <row r="85" spans="2:15">
-      <c r="B85" s="16"/>
-      <c r="C85" s="14"/>
-      <c r="D85" s="14"/>
-      <c r="E85" s="14"/>
-      <c r="F85" s="14"/>
-      <c r="G85" s="29"/>
-      <c r="H85" s="29"/>
-      <c r="I85" s="29"/>
-      <c r="J85" s="29"/>
-      <c r="K85" s="14"/>
-      <c r="L85" s="14"/>
-      <c r="M85" s="14"/>
+      <c r="B85" s="19"/>
+      <c r="C85" s="16"/>
+      <c r="D85" s="16"/>
+      <c r="E85" s="16"/>
+      <c r="F85" s="16"/>
+      <c r="G85" s="33"/>
+      <c r="H85" s="33"/>
+      <c r="I85" s="33"/>
+      <c r="J85" s="33"/>
+      <c r="K85" s="16"/>
+      <c r="L85" s="16"/>
+      <c r="M85" s="16"/>
       <c r="O85" s="37"/>
     </row>
     <row r="86" spans="2:15">
-      <c r="B86" s="16"/>
-      <c r="C86" s="14"/>
-      <c r="D86" s="14"/>
-      <c r="E86" s="14"/>
-      <c r="F86" s="14"/>
-      <c r="G86" s="29"/>
-      <c r="H86" s="29"/>
-      <c r="I86" s="29"/>
-      <c r="J86" s="29"/>
-      <c r="K86" s="14"/>
-      <c r="L86" s="14"/>
-      <c r="M86" s="14"/>
+      <c r="B86" s="19"/>
+      <c r="C86" s="16"/>
+      <c r="D86" s="16"/>
+      <c r="E86" s="16"/>
+      <c r="F86" s="16"/>
+      <c r="G86" s="33"/>
+      <c r="H86" s="33"/>
+      <c r="I86" s="33"/>
+      <c r="J86" s="33"/>
+      <c r="K86" s="16"/>
+      <c r="L86" s="16"/>
+      <c r="M86" s="16"/>
       <c r="O86" s="37"/>
     </row>
-    <row r="87" ht="13.5" spans="2:15">
-      <c r="B87" t="s">
+    <row r="87" spans="2:15">
+      <c r="B87" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="C87" s="14"/>
-      <c r="D87" s="14"/>
-      <c r="E87" s="14"/>
-      <c r="F87" s="14"/>
-      <c r="G87" s="29"/>
-      <c r="H87" s="29"/>
-      <c r="I87" s="29"/>
-      <c r="J87" s="29"/>
-      <c r="K87" s="14"/>
-      <c r="L87" s="14"/>
-      <c r="M87" s="14"/>
+      <c r="C87" s="16"/>
+      <c r="D87" s="16"/>
+      <c r="E87" s="16"/>
+      <c r="F87" s="16"/>
+      <c r="G87" s="33"/>
+      <c r="H87" s="33"/>
+      <c r="I87" s="33"/>
+      <c r="J87" s="33"/>
+      <c r="K87" s="16"/>
+      <c r="L87" s="16"/>
+      <c r="M87" s="16"/>
       <c r="O87" s="37"/>
     </row>
     <row r="88" spans="2:15">
-      <c r="B88" s="16"/>
-      <c r="C88" s="14"/>
-      <c r="D88" s="14"/>
-      <c r="E88" s="14"/>
-      <c r="F88" s="14"/>
-      <c r="G88" s="29"/>
-      <c r="H88" s="29"/>
-      <c r="I88" s="29"/>
-      <c r="J88" s="29"/>
-      <c r="K88" s="14"/>
-      <c r="L88" s="14"/>
-      <c r="M88" s="14"/>
+      <c r="B88" s="19"/>
+      <c r="C88" s="16"/>
+      <c r="D88" s="16"/>
+      <c r="E88" s="16"/>
+      <c r="F88" s="16"/>
+      <c r="G88" s="33"/>
+      <c r="H88" s="33"/>
+      <c r="I88" s="33"/>
+      <c r="J88" s="33"/>
+      <c r="K88" s="16"/>
+      <c r="L88" s="16"/>
+      <c r="M88" s="16"/>
       <c r="O88" s="37"/>
     </row>
     <row r="89" spans="2:15">
-      <c r="B89" s="16"/>
-      <c r="C89" s="14"/>
-      <c r="D89" s="14"/>
-      <c r="E89" s="14"/>
-      <c r="F89" s="14"/>
-      <c r="G89" s="29"/>
-      <c r="H89" s="29"/>
-      <c r="I89" s="29"/>
-      <c r="J89" s="29"/>
-      <c r="K89" s="14"/>
-      <c r="L89" s="14"/>
-      <c r="M89" s="14"/>
+      <c r="B89" s="19"/>
+      <c r="C89" s="16"/>
+      <c r="D89" s="16"/>
+      <c r="E89" s="16"/>
+      <c r="F89" s="16"/>
+      <c r="G89" s="33"/>
+      <c r="H89" s="33"/>
+      <c r="I89" s="33"/>
+      <c r="J89" s="33"/>
+      <c r="K89" s="16"/>
+      <c r="L89" s="16"/>
+      <c r="M89" s="16"/>
       <c r="O89" s="37"/>
     </row>
     <row r="90" spans="2:15">
-      <c r="B90" s="16"/>
-      <c r="C90" s="14"/>
-      <c r="D90" s="14"/>
-      <c r="E90" s="14"/>
-      <c r="F90" s="14"/>
-      <c r="G90" s="14"/>
-      <c r="H90" s="14"/>
-      <c r="I90" s="14"/>
-      <c r="J90" s="14"/>
-      <c r="K90" s="14"/>
-      <c r="L90" s="14"/>
-      <c r="M90" s="14"/>
-      <c r="O90" s="23"/>
+      <c r="B90" s="19"/>
+      <c r="C90" s="16"/>
+      <c r="D90" s="16"/>
+      <c r="E90" s="16"/>
+      <c r="F90" s="16"/>
+      <c r="G90" s="16"/>
+      <c r="H90" s="16"/>
+      <c r="I90" s="16"/>
+      <c r="J90" s="16"/>
+      <c r="K90" s="16"/>
+      <c r="L90" s="16"/>
+      <c r="M90" s="16"/>
+      <c r="O90" s="28"/>
     </row>
     <row r="91" spans="2:15">
-      <c r="B91" s="16"/>
-      <c r="C91" s="14"/>
-      <c r="D91" s="14"/>
-      <c r="E91" s="14"/>
-      <c r="F91" s="14"/>
-      <c r="G91" s="14"/>
-      <c r="H91" s="14"/>
-      <c r="I91" s="14"/>
-      <c r="J91" s="14"/>
-      <c r="K91" s="14"/>
-      <c r="L91" s="14"/>
-      <c r="M91" s="14"/>
-      <c r="O91" s="23"/>
+      <c r="B91" s="19"/>
+      <c r="C91" s="16"/>
+      <c r="D91" s="16"/>
+      <c r="E91" s="16"/>
+      <c r="F91" s="16"/>
+      <c r="G91" s="16"/>
+      <c r="H91" s="16"/>
+      <c r="I91" s="16"/>
+      <c r="J91" s="16"/>
+      <c r="K91" s="16"/>
+      <c r="L91" s="16"/>
+      <c r="M91" s="16"/>
+      <c r="O91" s="28"/>
     </row>
     <row r="92" spans="2:15">
-      <c r="B92" s="16"/>
-      <c r="C92" s="14"/>
-      <c r="D92" s="14"/>
-      <c r="E92" s="14"/>
-      <c r="F92" s="14"/>
-      <c r="G92" s="14"/>
-      <c r="H92" s="14"/>
-      <c r="I92" s="14"/>
-      <c r="J92" s="14"/>
-      <c r="K92" s="14"/>
-      <c r="L92" s="14"/>
-      <c r="M92" s="14"/>
-      <c r="O92" s="23"/>
+      <c r="B92" s="19"/>
+      <c r="C92" s="16"/>
+      <c r="D92" s="16"/>
+      <c r="E92" s="16"/>
+      <c r="F92" s="16"/>
+      <c r="G92" s="16"/>
+      <c r="H92" s="16"/>
+      <c r="I92" s="16"/>
+      <c r="J92" s="16"/>
+      <c r="K92" s="16"/>
+      <c r="L92" s="16"/>
+      <c r="M92" s="16"/>
+      <c r="O92" s="28"/>
     </row>
     <row r="93" spans="2:15">
-      <c r="B93" s="16"/>
-      <c r="C93" s="14"/>
-      <c r="D93" s="14"/>
-      <c r="E93" s="14"/>
-      <c r="F93" s="14"/>
-      <c r="G93" s="14"/>
-      <c r="H93" s="14"/>
-      <c r="I93" s="14"/>
-      <c r="J93" s="14"/>
-      <c r="K93" s="14"/>
-      <c r="L93" s="14"/>
-      <c r="M93" s="14"/>
-      <c r="O93" s="23"/>
+      <c r="B93" s="19"/>
+      <c r="C93" s="16"/>
+      <c r="D93" s="16"/>
+      <c r="E93" s="16"/>
+      <c r="F93" s="16"/>
+      <c r="G93" s="16"/>
+      <c r="H93" s="16"/>
+      <c r="I93" s="16"/>
+      <c r="J93" s="16"/>
+      <c r="K93" s="16"/>
+      <c r="L93" s="16"/>
+      <c r="M93" s="16"/>
+      <c r="O93" s="28"/>
     </row>
     <row r="94" spans="2:15">
-      <c r="B94" s="16"/>
-      <c r="C94" s="14"/>
-      <c r="D94" s="14"/>
-      <c r="E94" s="14"/>
-      <c r="F94" s="14"/>
-      <c r="G94" s="14"/>
-      <c r="H94" s="14"/>
-      <c r="I94" s="14"/>
-      <c r="J94" s="14"/>
-      <c r="K94" s="14"/>
-      <c r="L94" s="14"/>
-      <c r="M94" s="14"/>
-      <c r="N94"/>
-      <c r="O94" s="24"/>
+      <c r="B94" s="19"/>
+      <c r="C94" s="16"/>
+      <c r="D94" s="16"/>
+      <c r="E94" s="16"/>
+      <c r="F94" s="16"/>
+      <c r="G94" s="16"/>
+      <c r="H94" s="16"/>
+      <c r="I94" s="16"/>
+      <c r="J94" s="16"/>
+      <c r="K94" s="16"/>
+      <c r="L94" s="16"/>
+      <c r="M94" s="16"/>
+      <c r="N94" s="18"/>
+      <c r="O94" s="17"/>
     </row>
     <row r="98" spans="3:9">
-      <c r="C98" s="14"/>
-      <c r="D98" s="14"/>
-      <c r="E98" s="14"/>
-      <c r="F98" s="14"/>
-      <c r="G98" s="14"/>
-      <c r="H98" s="14"/>
-      <c r="I98" s="14"/>
+      <c r="C98" s="16"/>
+      <c r="D98" s="16"/>
+      <c r="E98" s="16"/>
+      <c r="F98" s="16"/>
+      <c r="G98" s="16"/>
+      <c r="H98" s="16"/>
+      <c r="I98" s="16"/>
     </row>
     <row r="101" spans="3:13">
-      <c r="C101" s="29"/>
-      <c r="D101" s="29"/>
-      <c r="E101" s="29"/>
-      <c r="F101" s="29"/>
-      <c r="G101" s="34"/>
-      <c r="H101" s="34"/>
-      <c r="I101" s="34"/>
+      <c r="C101" s="33"/>
+      <c r="D101" s="33"/>
+      <c r="E101" s="33"/>
+      <c r="F101" s="33"/>
+      <c r="G101" s="35"/>
+      <c r="H101" s="35"/>
+      <c r="I101" s="35"/>
       <c r="J101" s="36"/>
       <c r="K101" s="36"/>
       <c r="L101" s="36"/>
@@ -3095,22 +3089,22 @@
       <c r="M104" s="36"/>
     </row>
     <row r="105" spans="3:9">
-      <c r="C105" s="14"/>
-      <c r="D105" s="14"/>
-      <c r="E105" s="14"/>
-      <c r="F105" s="14"/>
-      <c r="G105" s="14"/>
-      <c r="H105" s="14"/>
-      <c r="I105" s="14"/>
+      <c r="C105" s="16"/>
+      <c r="D105" s="16"/>
+      <c r="E105" s="16"/>
+      <c r="F105" s="16"/>
+      <c r="G105" s="16"/>
+      <c r="H105" s="16"/>
+      <c r="I105" s="16"/>
     </row>
     <row r="108" spans="3:9">
-      <c r="C108" s="14"/>
-      <c r="D108" s="14"/>
-      <c r="E108" s="14"/>
-      <c r="F108" s="14"/>
-      <c r="G108" s="14"/>
-      <c r="H108" s="14"/>
-      <c r="I108" s="14"/>
+      <c r="C108" s="16"/>
+      <c r="D108" s="16"/>
+      <c r="E108" s="16"/>
+      <c r="F108" s="16"/>
+      <c r="G108" s="16"/>
+      <c r="H108" s="16"/>
+      <c r="I108" s="16"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
@@ -3125,11 +3119,11 @@
   <sheetPr/>
   <dimension ref="C2:P75"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C3" sqref="C3:N20"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="AA28" sqref="AA28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="9" style="1"/>
     <col min="2" max="2" width="14.25" style="1" customWidth="1"/>
@@ -3269,7 +3263,7 @@
       <c r="N10" s="4"/>
     </row>
     <row r="11" s="1" customFormat="1" spans="3:14">
-      <c r="C11"/>
+      <c r="C11" s="5"/>
       <c r="D11" s="4"/>
       <c r="E11" s="4"/>
       <c r="F11" s="4"/>
@@ -3277,13 +3271,13 @@
       <c r="H11" s="4"/>
       <c r="I11" s="4"/>
       <c r="J11" s="4"/>
-      <c r="K11" s="7"/>
+      <c r="K11" s="8"/>
       <c r="L11" s="4"/>
       <c r="M11" s="4"/>
       <c r="N11" s="4"/>
     </row>
-    <row r="12" s="1" customFormat="1" ht="13.5" spans="3:14">
-      <c r="C12" t="s">
+    <row r="12" s="1" customFormat="1" spans="3:14">
+      <c r="C12" s="5" t="s">
         <v>3</v>
       </c>
       <c r="D12" s="4"/>
@@ -3342,72 +3336,72 @@
     </row>
     <row r="16" s="1" customFormat="1" spans="3:14">
       <c r="C16" s="2"/>
-      <c r="D16" s="5"/>
-      <c r="E16" s="5"/>
-      <c r="F16" s="5"/>
-      <c r="G16" s="5"/>
-      <c r="H16" s="5"/>
-      <c r="I16" s="5"/>
-      <c r="J16" s="5"/>
-      <c r="K16" s="5"/>
-      <c r="L16" s="5"/>
-      <c r="M16" s="5"/>
-      <c r="N16" s="5"/>
+      <c r="D16" s="6"/>
+      <c r="E16" s="6"/>
+      <c r="F16" s="6"/>
+      <c r="G16" s="6"/>
+      <c r="H16" s="6"/>
+      <c r="I16" s="6"/>
+      <c r="J16" s="6"/>
+      <c r="K16" s="6"/>
+      <c r="L16" s="6"/>
+      <c r="M16" s="6"/>
+      <c r="N16" s="6"/>
     </row>
     <row r="17" s="1" customFormat="1" spans="3:14">
       <c r="C17" s="2"/>
-      <c r="D17" s="5"/>
-      <c r="E17" s="5"/>
-      <c r="F17" s="5"/>
-      <c r="G17" s="5"/>
-      <c r="H17" s="5"/>
-      <c r="I17" s="5"/>
-      <c r="J17" s="5"/>
-      <c r="K17" s="8"/>
-      <c r="L17" s="5"/>
-      <c r="M17" s="5"/>
-      <c r="N17" s="5"/>
+      <c r="D17" s="6"/>
+      <c r="E17" s="6"/>
+      <c r="F17" s="6"/>
+      <c r="G17" s="6"/>
+      <c r="H17" s="6"/>
+      <c r="I17" s="6"/>
+      <c r="J17" s="6"/>
+      <c r="K17" s="9"/>
+      <c r="L17" s="6"/>
+      <c r="M17" s="6"/>
+      <c r="N17" s="6"/>
     </row>
     <row r="18" s="1" customFormat="1" spans="3:14">
       <c r="C18" s="2"/>
-      <c r="D18" s="5"/>
-      <c r="E18" s="5"/>
-      <c r="F18" s="5"/>
-      <c r="G18" s="5"/>
-      <c r="H18" s="5"/>
-      <c r="I18" s="5"/>
-      <c r="J18" s="5"/>
-      <c r="K18" s="8"/>
-      <c r="L18" s="5"/>
-      <c r="M18" s="5"/>
-      <c r="N18" s="5"/>
+      <c r="D18" s="6"/>
+      <c r="E18" s="6"/>
+      <c r="F18" s="6"/>
+      <c r="G18" s="6"/>
+      <c r="H18" s="6"/>
+      <c r="I18" s="6"/>
+      <c r="J18" s="6"/>
+      <c r="K18" s="9"/>
+      <c r="L18" s="6"/>
+      <c r="M18" s="6"/>
+      <c r="N18" s="6"/>
     </row>
     <row r="19" s="1" customFormat="1" spans="3:14">
       <c r="C19" s="2"/>
-      <c r="D19" s="5"/>
-      <c r="E19" s="5"/>
-      <c r="F19" s="5"/>
-      <c r="G19" s="5"/>
-      <c r="H19" s="5"/>
-      <c r="I19" s="5"/>
-      <c r="J19" s="5"/>
-      <c r="K19" s="5"/>
-      <c r="L19" s="5"/>
-      <c r="M19" s="5"/>
-      <c r="N19" s="5"/>
+      <c r="D19" s="6"/>
+      <c r="E19" s="6"/>
+      <c r="F19" s="6"/>
+      <c r="G19" s="6"/>
+      <c r="H19" s="6"/>
+      <c r="I19" s="6"/>
+      <c r="J19" s="6"/>
+      <c r="K19" s="6"/>
+      <c r="L19" s="6"/>
+      <c r="M19" s="6"/>
+      <c r="N19" s="6"/>
     </row>
     <row r="20" s="1" customFormat="1" spans="4:14">
-      <c r="D20" s="5"/>
-      <c r="E20" s="5"/>
-      <c r="F20" s="5"/>
-      <c r="G20" s="5"/>
-      <c r="H20" s="5"/>
-      <c r="I20" s="5"/>
-      <c r="J20" s="5"/>
-      <c r="K20" s="5"/>
-      <c r="L20" s="5"/>
-      <c r="M20" s="5"/>
-      <c r="N20" s="5"/>
+      <c r="D20" s="6"/>
+      <c r="E20" s="6"/>
+      <c r="F20" s="6"/>
+      <c r="G20" s="6"/>
+      <c r="H20" s="6"/>
+      <c r="I20" s="6"/>
+      <c r="J20" s="6"/>
+      <c r="K20" s="6"/>
+      <c r="L20" s="6"/>
+      <c r="M20" s="6"/>
+      <c r="N20" s="6"/>
     </row>
     <row r="22" s="1" customFormat="1" spans="3:14">
       <c r="C22" s="2"/>
@@ -3429,215 +3423,215 @@
     </row>
     <row r="23" s="1" customFormat="1" spans="3:14">
       <c r="C23" s="2"/>
-      <c r="D23" s="6"/>
-      <c r="E23" s="6"/>
-      <c r="F23" s="6"/>
-      <c r="G23" s="6"/>
+      <c r="D23" s="7"/>
+      <c r="E23" s="7"/>
+      <c r="F23" s="7"/>
+      <c r="G23" s="7"/>
       <c r="H23" s="4"/>
       <c r="I23" s="4"/>
       <c r="J23" s="4"/>
       <c r="K23" s="4"/>
-      <c r="L23" s="5"/>
-      <c r="M23" s="5"/>
-      <c r="N23" s="5"/>
+      <c r="L23" s="6"/>
+      <c r="M23" s="6"/>
+      <c r="N23" s="6"/>
     </row>
     <row r="24" s="1" customFormat="1" spans="3:14">
       <c r="C24" s="2"/>
-      <c r="D24" s="6"/>
-      <c r="E24" s="6"/>
-      <c r="F24" s="6"/>
-      <c r="G24" s="6"/>
+      <c r="D24" s="7"/>
+      <c r="E24" s="7"/>
+      <c r="F24" s="7"/>
+      <c r="G24" s="7"/>
       <c r="H24" s="4"/>
-      <c r="I24" s="7"/>
-      <c r="J24" s="7"/>
-      <c r="K24" s="7"/>
-      <c r="L24" s="5"/>
-      <c r="M24" s="5"/>
-      <c r="N24" s="5"/>
+      <c r="I24" s="8"/>
+      <c r="J24" s="8"/>
+      <c r="K24" s="8"/>
+      <c r="L24" s="6"/>
+      <c r="M24" s="6"/>
+      <c r="N24" s="6"/>
     </row>
     <row r="25" s="1" customFormat="1" spans="3:14">
       <c r="C25" s="2"/>
-      <c r="D25" s="6"/>
-      <c r="E25" s="6"/>
-      <c r="F25" s="6"/>
-      <c r="G25" s="6"/>
+      <c r="D25" s="7"/>
+      <c r="E25" s="7"/>
+      <c r="F25" s="7"/>
+      <c r="G25" s="7"/>
       <c r="H25" s="4"/>
-      <c r="I25" s="7"/>
-      <c r="J25" s="7"/>
-      <c r="K25" s="7"/>
-      <c r="L25" s="5"/>
-      <c r="M25" s="5"/>
-      <c r="N25" s="5"/>
+      <c r="I25" s="8"/>
+      <c r="J25" s="8"/>
+      <c r="K25" s="8"/>
+      <c r="L25" s="6"/>
+      <c r="M25" s="6"/>
+      <c r="N25" s="6"/>
     </row>
     <row r="26" s="1" customFormat="1" spans="3:14">
       <c r="C26" s="2"/>
-      <c r="D26" s="6"/>
-      <c r="E26" s="6"/>
-      <c r="F26" s="6"/>
-      <c r="G26" s="6"/>
+      <c r="D26" s="7"/>
+      <c r="E26" s="7"/>
+      <c r="F26" s="7"/>
+      <c r="G26" s="7"/>
       <c r="H26" s="4"/>
       <c r="I26" s="4"/>
       <c r="J26" s="4"/>
       <c r="K26" s="4"/>
-      <c r="L26" s="5"/>
-      <c r="M26" s="5"/>
-      <c r="N26" s="5"/>
+      <c r="L26" s="6"/>
+      <c r="M26" s="6"/>
+      <c r="N26" s="6"/>
     </row>
     <row r="27" s="1" customFormat="1" spans="3:14">
       <c r="C27" s="2"/>
-      <c r="D27" s="6"/>
-      <c r="E27" s="6"/>
-      <c r="F27" s="6"/>
-      <c r="G27" s="6"/>
+      <c r="D27" s="7"/>
+      <c r="E27" s="7"/>
+      <c r="F27" s="7"/>
+      <c r="G27" s="7"/>
       <c r="H27" s="4"/>
-      <c r="I27" s="7"/>
-      <c r="J27" s="7"/>
-      <c r="K27" s="7"/>
-      <c r="L27" s="5"/>
-      <c r="M27" s="5"/>
-      <c r="N27" s="5"/>
+      <c r="I27" s="8"/>
+      <c r="J27" s="8"/>
+      <c r="K27" s="8"/>
+      <c r="L27" s="6"/>
+      <c r="M27" s="6"/>
+      <c r="N27" s="6"/>
     </row>
     <row r="28" s="1" customFormat="1" spans="3:14">
       <c r="C28" s="2"/>
-      <c r="D28" s="6"/>
-      <c r="E28" s="6"/>
-      <c r="F28" s="6"/>
-      <c r="G28" s="6"/>
+      <c r="D28" s="7"/>
+      <c r="E28" s="7"/>
+      <c r="F28" s="7"/>
+      <c r="G28" s="7"/>
       <c r="H28" s="4"/>
       <c r="I28" s="4"/>
       <c r="J28" s="4"/>
       <c r="K28" s="4"/>
-      <c r="L28" s="5"/>
-      <c r="M28" s="5"/>
-      <c r="N28" s="5"/>
+      <c r="L28" s="6"/>
+      <c r="M28" s="6"/>
+      <c r="N28" s="6"/>
     </row>
     <row r="29" s="1" customFormat="1" spans="3:14">
       <c r="C29" s="2"/>
-      <c r="D29" s="6"/>
-      <c r="E29" s="6"/>
-      <c r="F29" s="6"/>
-      <c r="G29" s="6"/>
+      <c r="D29" s="7"/>
+      <c r="E29" s="7"/>
+      <c r="F29" s="7"/>
+      <c r="G29" s="7"/>
       <c r="H29" s="4"/>
       <c r="I29" s="4"/>
       <c r="J29" s="4"/>
       <c r="K29" s="4"/>
-      <c r="L29" s="5"/>
-      <c r="M29" s="5"/>
-      <c r="N29" s="5"/>
-    </row>
-    <row r="30" s="1" customFormat="1" ht="13.5" spans="3:14">
-      <c r="C30" t="s">
+      <c r="L29" s="6"/>
+      <c r="M29" s="6"/>
+      <c r="N29" s="6"/>
+    </row>
+    <row r="30" s="1" customFormat="1" spans="3:14">
+      <c r="C30" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="D30" s="6"/>
-      <c r="E30" s="6"/>
-      <c r="F30" s="6"/>
-      <c r="G30" s="6"/>
+      <c r="D30" s="7"/>
+      <c r="E30" s="7"/>
+      <c r="F30" s="7"/>
+      <c r="G30" s="7"/>
       <c r="H30" s="4"/>
-      <c r="I30" s="7"/>
-      <c r="J30" s="7"/>
-      <c r="K30" s="7"/>
-      <c r="L30" s="5"/>
-      <c r="M30" s="5"/>
-      <c r="N30" s="5"/>
+      <c r="I30" s="8"/>
+      <c r="J30" s="8"/>
+      <c r="K30" s="8"/>
+      <c r="L30" s="6"/>
+      <c r="M30" s="6"/>
+      <c r="N30" s="6"/>
     </row>
     <row r="31" s="1" customFormat="1" spans="3:14">
       <c r="C31" s="2"/>
-      <c r="D31" s="6"/>
-      <c r="E31" s="6"/>
-      <c r="F31" s="6"/>
-      <c r="G31" s="6"/>
+      <c r="D31" s="7"/>
+      <c r="E31" s="7"/>
+      <c r="F31" s="7"/>
+      <c r="G31" s="7"/>
       <c r="H31" s="4"/>
       <c r="I31" s="4"/>
       <c r="J31" s="4"/>
       <c r="K31" s="4"/>
-      <c r="L31" s="5"/>
-      <c r="M31" s="5"/>
-      <c r="N31" s="5"/>
+      <c r="L31" s="6"/>
+      <c r="M31" s="6"/>
+      <c r="N31" s="6"/>
     </row>
     <row r="32" s="1" customFormat="1" spans="3:14">
       <c r="C32" s="2"/>
-      <c r="D32" s="6"/>
-      <c r="E32" s="6"/>
-      <c r="F32" s="6"/>
-      <c r="G32" s="6"/>
+      <c r="D32" s="7"/>
+      <c r="E32" s="7"/>
+      <c r="F32" s="7"/>
+      <c r="G32" s="7"/>
       <c r="H32" s="4"/>
       <c r="I32" s="4"/>
       <c r="J32" s="4"/>
       <c r="K32" s="4"/>
-      <c r="L32" s="5"/>
-      <c r="M32" s="5"/>
-      <c r="N32" s="5"/>
+      <c r="L32" s="6"/>
+      <c r="M32" s="6"/>
+      <c r="N32" s="6"/>
     </row>
     <row r="33" s="1" customFormat="1" spans="3:14">
       <c r="C33" s="2"/>
-      <c r="D33" s="6"/>
-      <c r="E33" s="6"/>
-      <c r="F33" s="6"/>
-      <c r="G33" s="6"/>
+      <c r="D33" s="7"/>
+      <c r="E33" s="7"/>
+      <c r="F33" s="7"/>
+      <c r="G33" s="7"/>
       <c r="H33" s="4"/>
       <c r="I33" s="4"/>
       <c r="J33" s="4"/>
       <c r="K33" s="4"/>
-      <c r="L33" s="5"/>
-      <c r="M33" s="5"/>
-      <c r="N33" s="5"/>
+      <c r="L33" s="6"/>
+      <c r="M33" s="6"/>
+      <c r="N33" s="6"/>
     </row>
     <row r="34" s="1" customFormat="1" spans="3:14">
       <c r="C34" s="2"/>
-      <c r="D34" s="6"/>
-      <c r="E34" s="6"/>
-      <c r="F34" s="6"/>
-      <c r="G34" s="6"/>
+      <c r="D34" s="7"/>
+      <c r="E34" s="7"/>
+      <c r="F34" s="7"/>
+      <c r="G34" s="7"/>
       <c r="H34" s="4"/>
       <c r="I34" s="4"/>
       <c r="J34" s="4"/>
       <c r="K34" s="4"/>
-      <c r="L34" s="5"/>
-      <c r="M34" s="5"/>
-      <c r="N34" s="5"/>
+      <c r="L34" s="6"/>
+      <c r="M34" s="6"/>
+      <c r="N34" s="6"/>
     </row>
     <row r="35" s="1" customFormat="1" spans="3:14">
       <c r="C35" s="2"/>
-      <c r="D35" s="6"/>
-      <c r="E35" s="6"/>
-      <c r="F35" s="6"/>
-      <c r="G35" s="6"/>
+      <c r="D35" s="7"/>
+      <c r="E35" s="7"/>
+      <c r="F35" s="7"/>
+      <c r="G35" s="7"/>
       <c r="H35" s="4"/>
       <c r="I35" s="4"/>
       <c r="J35" s="4"/>
       <c r="K35" s="4"/>
-      <c r="L35" s="5"/>
-      <c r="M35" s="5"/>
-      <c r="N35" s="5"/>
+      <c r="L35" s="6"/>
+      <c r="M35" s="6"/>
+      <c r="N35" s="6"/>
     </row>
     <row r="36" s="1" customFormat="1" spans="3:14">
       <c r="C36" s="2"/>
-      <c r="D36" s="6"/>
-      <c r="E36" s="6"/>
-      <c r="F36" s="6"/>
-      <c r="G36" s="6"/>
+      <c r="D36" s="7"/>
+      <c r="E36" s="7"/>
+      <c r="F36" s="7"/>
+      <c r="G36" s="7"/>
       <c r="H36" s="4"/>
-      <c r="I36" s="7"/>
-      <c r="J36" s="7"/>
-      <c r="K36" s="7"/>
-      <c r="L36" s="5"/>
-      <c r="M36" s="5"/>
-      <c r="N36" s="5"/>
+      <c r="I36" s="8"/>
+      <c r="J36" s="8"/>
+      <c r="K36" s="8"/>
+      <c r="L36" s="6"/>
+      <c r="M36" s="6"/>
+      <c r="N36" s="6"/>
     </row>
     <row r="37" s="1" customFormat="1" spans="3:14">
       <c r="C37" s="2"/>
-      <c r="D37" s="6"/>
-      <c r="E37" s="6"/>
-      <c r="F37" s="6"/>
-      <c r="G37" s="6"/>
+      <c r="D37" s="7"/>
+      <c r="E37" s="7"/>
+      <c r="F37" s="7"/>
+      <c r="G37" s="7"/>
       <c r="H37" s="4"/>
-      <c r="I37" s="7"/>
-      <c r="J37" s="7"/>
-      <c r="K37" s="7"/>
-      <c r="L37" s="5"/>
-      <c r="M37" s="5"/>
-      <c r="N37" s="5"/>
+      <c r="I37" s="8"/>
+      <c r="J37" s="8"/>
+      <c r="K37" s="8"/>
+      <c r="L37" s="6"/>
+      <c r="M37" s="6"/>
+      <c r="N37" s="6"/>
     </row>
     <row r="59" spans="4:16">
       <c r="D59" s="1" t="s">
@@ -3651,74 +3645,93 @@
       </c>
     </row>
     <row r="60" spans="11:11">
-      <c r="K60" s="9"/>
+      <c r="K60" s="10"/>
     </row>
     <row r="61" spans="11:11">
-      <c r="K61" s="9"/>
+      <c r="K61" s="10"/>
     </row>
     <row r="62" spans="11:11">
-      <c r="K62" s="9"/>
+      <c r="K62" s="10"/>
     </row>
     <row r="63" spans="11:11">
-      <c r="K63" s="9"/>
+      <c r="K63" s="10"/>
     </row>
     <row r="64" spans="11:11">
-      <c r="K64" s="9"/>
+      <c r="K64" s="10"/>
     </row>
     <row r="65" spans="11:11">
-      <c r="K65" s="9"/>
+      <c r="K65" s="10"/>
     </row>
     <row r="66" spans="11:11">
-      <c r="K66" s="9"/>
-    </row>
-    <row r="67" ht="13.5" spans="3:16">
-      <c r="C67" t="s">
+      <c r="K66" s="10"/>
+    </row>
+    <row r="67" spans="3:16">
+      <c r="C67" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="D67" s="3"/>
-      <c r="E67" s="3"/>
-      <c r="F67" s="3"/>
-      <c r="G67" s="3"/>
-      <c r="H67" s="3"/>
-      <c r="I67" s="3"/>
-      <c r="J67" s="3"/>
-      <c r="K67" s="10" t="s">
+      <c r="D67" s="11"/>
+      <c r="E67" s="11"/>
+      <c r="F67" s="11"/>
+      <c r="G67" s="11"/>
+      <c r="H67" s="11"/>
+      <c r="I67" s="11"/>
+      <c r="J67" s="11"/>
+      <c r="K67" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="L67" s="3"/>
-      <c r="M67" s="3"/>
-      <c r="N67" s="3"/>
-      <c r="P67" s="11" t="s">
+      <c r="L67" s="11"/>
+      <c r="M67" s="11"/>
+      <c r="N67" s="11"/>
+      <c r="P67" s="13" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="68" spans="11:11">
-      <c r="K68" s="9"/>
+      <c r="K68" s="10"/>
     </row>
     <row r="69" spans="11:11">
-      <c r="K69" s="9"/>
+      <c r="K69" s="10"/>
     </row>
     <row r="70" spans="11:11">
-      <c r="K70" s="9"/>
+      <c r="K70" s="10"/>
     </row>
     <row r="71" spans="11:11">
-      <c r="K71" s="9"/>
+      <c r="K71" s="10"/>
     </row>
     <row r="72" spans="11:11">
-      <c r="K72" s="9"/>
+      <c r="K72" s="10"/>
     </row>
     <row r="73" spans="11:11">
-      <c r="K73" s="9"/>
+      <c r="K73" s="10"/>
     </row>
     <row r="74" spans="11:11">
-      <c r="K74" s="9"/>
+      <c r="K74" s="10"/>
     </row>
     <row r="75" spans="11:11">
-      <c r="K75" s="9"/>
+      <c r="K75" s="10"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="$A1:$XFD1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <cols>
+    <col min="1" max="16384" width="9" style="1"/>
+  </cols>
+  <sheetData/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
+  <headerFooter/>
+</worksheet>
 </file>